--- a/Code/Results/Cases/Case_0_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.7185632477519943</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.7323839355369292</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7578049167338345</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.668955614012171</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.7543527846900714</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7494738424580657</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.7741249429451583</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6883320558111652</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.755424052169805</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.7965989817772799</v>
+      </c>
+      <c r="D3">
+        <v>0.8072097875174579</v>
+      </c>
+      <c r="E3">
+        <v>0.825296699888849</v>
+      </c>
+      <c r="F3">
+        <v>0.7619769117344956</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.045318143171977</v>
+      </c>
+      <c r="J3">
+        <v>0.8247373247078787</v>
+      </c>
+      <c r="K3">
+        <v>0.8210940392777213</v>
+      </c>
+      <c r="L3">
+        <v>0.8387905045022132</v>
+      </c>
+      <c r="M3">
+        <v>0.7769477492173728</v>
+      </c>
+      <c r="N3">
+        <v>0.8259085463076572</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.8271699043368939</v>
+      </c>
+      <c r="D4">
+        <v>0.8366195549777917</v>
+      </c>
+      <c r="E4">
+        <v>0.8519412999328153</v>
+      </c>
+      <c r="F4">
+        <v>0.797707665858729</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.045357368412754</v>
+      </c>
+      <c r="J4">
+        <v>0.8523342661375601</v>
+      </c>
+      <c r="K4">
+        <v>0.8491926837654502</v>
+      </c>
+      <c r="L4">
+        <v>0.8642299139117353</v>
+      </c>
+      <c r="M4">
+        <v>0.8110685786427776</v>
+      </c>
+      <c r="N4">
+        <v>0.8535446785595823</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.8381906269217031</v>
+      </c>
+      <c r="D5">
+        <v>0.8472329628728381</v>
+      </c>
+      <c r="E5">
+        <v>0.8615677873249131</v>
+      </c>
+      <c r="F5">
+        <v>0.8105245520107687</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.045368675785518</v>
+      </c>
+      <c r="J5">
+        <v>0.8622822803600207</v>
+      </c>
+      <c r="K5">
+        <v>0.8593244118748422</v>
+      </c>
+      <c r="L5">
+        <v>0.873407962364063</v>
+      </c>
+      <c r="M5">
+        <v>0.8233128136249878</v>
+      </c>
+      <c r="N5">
+        <v>0.8635068201032918</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.8399604820022196</v>
+      </c>
+      <c r="D6">
+        <v>0.8489379286351475</v>
+      </c>
+      <c r="E6">
+        <v>0.863114663542058</v>
+      </c>
+      <c r="F6">
+        <v>0.8125801662397462</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.045370270238388</v>
+      </c>
+      <c r="J6">
+        <v>0.8638797553969573</v>
+      </c>
+      <c r="K6">
+        <v>0.8609515420102394</v>
+      </c>
+      <c r="L6">
+        <v>0.8748821111609041</v>
+      </c>
+      <c r="M6">
+        <v>0.825276723561631</v>
+      </c>
+      <c r="N6">
+        <v>0.865106563738014</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.8273230186468566</v>
+      </c>
+      <c r="D7">
+        <v>0.8367669711923558</v>
+      </c>
+      <c r="E7">
+        <v>0.8520749730582331</v>
+      </c>
+      <c r="F7">
+        <v>0.7978859421826147</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.045357539874439</v>
+      </c>
+      <c r="J7">
+        <v>0.8524724832786229</v>
+      </c>
+      <c r="K7">
+        <v>0.8493334423943442</v>
+      </c>
+      <c r="L7">
+        <v>0.8643574084796332</v>
+      </c>
+      <c r="M7">
+        <v>0.8112388773370819</v>
+      </c>
+      <c r="N7">
+        <v>0.853683091984839</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D8">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E8">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F8">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J8">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K8">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L8">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M8">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N8">
+        <v>0.7869429864450304</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D9">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E9">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F9">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J9">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K9">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L9">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M9">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N9">
+        <v>0.7869429864450304</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D10">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E10">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F10">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J10">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K10">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L10">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M10">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N10">
+        <v>0.7869429864450304</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D11">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E11">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F11">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J11">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K11">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L11">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M11">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N11">
+        <v>0.7869429864450304</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D12">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E12">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F12">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J12">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K12">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L12">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M12">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N12">
+        <v>0.7869429864450304</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D13">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E13">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F13">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J13">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K13">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L13">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M13">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N13">
+        <v>0.7869429864450304</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D14">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E14">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F14">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J14">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K14">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L14">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M14">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N14">
+        <v>0.7869429864450304</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D15">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E15">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F15">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J15">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K15">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L15">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M15">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N15">
+        <v>0.7869429864450304</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D16">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E16">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F16">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J16">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K16">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L16">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M16">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N16">
+        <v>0.7869429864450304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D17">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E17">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F17">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J17">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K17">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L17">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M17">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N17">
+        <v>0.7869429864450304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D18">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E18">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F18">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J18">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K18">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L18">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M18">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N18">
+        <v>0.7869429864450304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D19">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E19">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F19">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J19">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K19">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L19">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M19">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N19">
+        <v>0.7869429864450304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D20">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E20">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F20">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J20">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K20">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L20">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M20">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N20">
+        <v>0.7869429864450304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D21">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E21">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F21">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J21">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K21">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L21">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M21">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N21">
+        <v>0.7869429864450304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D22">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E22">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F22">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J22">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K22">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L22">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M22">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N22">
+        <v>0.7869429864450304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D23">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E23">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F23">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J23">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K23">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L23">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M23">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N23">
+        <v>0.7869429864450304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D24">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E24">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F24">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J24">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K24">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L24">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M24">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N24">
+        <v>0.7869429864450304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.7534782072524063</v>
+      </c>
+      <c r="D25">
+        <v>0.7658148228477135</v>
+      </c>
+      <c r="E25">
+        <v>0.7878948441993042</v>
+      </c>
+      <c r="F25">
+        <v>0.7109821744849436</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J25">
+        <v>0.785827021938259</v>
+      </c>
+      <c r="K25">
+        <v>0.7814935142181364</v>
+      </c>
+      <c r="L25">
+        <v>0.8029949382389989</v>
+      </c>
+      <c r="M25">
+        <v>0.7283151511768081</v>
+      </c>
+      <c r="N25">
+        <v>0.7869429864450304</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7185632477519943</v>
+        <v>1.010698759239443</v>
       </c>
       <c r="D2">
-        <v>0.7323839355369292</v>
+        <v>1.023892058939393</v>
       </c>
       <c r="E2">
-        <v>0.7578049167338345</v>
+        <v>1.023870421312132</v>
       </c>
       <c r="F2">
-        <v>0.668955614012171</v>
+        <v>1.0306828960357</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.046475298863774</v>
       </c>
       <c r="J2">
-        <v>0.7543527846900714</v>
+        <v>1.032564114166955</v>
       </c>
       <c r="K2">
-        <v>0.7494738424580657</v>
+        <v>1.035028279341204</v>
       </c>
       <c r="L2">
-        <v>0.7741249429451583</v>
+        <v>1.03500692578635</v>
       </c>
       <c r="M2">
-        <v>0.6883320558111652</v>
+        <v>1.041730699379481</v>
       </c>
       <c r="N2">
-        <v>0.755424052169805</v>
+        <v>1.034030473645836</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.7965989817772799</v>
+        <v>1.015275103059755</v>
       </c>
       <c r="D3">
-        <v>0.8072097875174579</v>
+        <v>1.027764940947453</v>
       </c>
       <c r="E3">
-        <v>0.825296699888849</v>
+        <v>1.027718358717571</v>
       </c>
       <c r="F3">
-        <v>0.7619769117344956</v>
+        <v>1.034921060846698</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.047300524868086</v>
       </c>
       <c r="J3">
-        <v>0.8247373247078787</v>
+        <v>1.035357841179368</v>
       </c>
       <c r="K3">
-        <v>0.8210940392777213</v>
+        <v>1.03805447420924</v>
       </c>
       <c r="L3">
-        <v>0.8387905045022132</v>
+        <v>1.038008448751548</v>
       </c>
       <c r="M3">
-        <v>0.7769477492173728</v>
+        <v>1.045125797816733</v>
       </c>
       <c r="N3">
-        <v>0.8259085463076572</v>
+        <v>1.036828168071048</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8271699043368939</v>
+        <v>1.018177129974594</v>
       </c>
       <c r="D4">
-        <v>0.8366195549777917</v>
+        <v>1.030226470411325</v>
       </c>
       <c r="E4">
-        <v>0.8519412999328153</v>
+        <v>1.030164572587667</v>
       </c>
       <c r="F4">
-        <v>0.797707665858729</v>
+        <v>1.03761582320868</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.047811936845632</v>
       </c>
       <c r="J4">
-        <v>0.8523342661375601</v>
+        <v>1.037127021197644</v>
       </c>
       <c r="K4">
-        <v>0.8491926837654502</v>
+        <v>1.039973278133019</v>
       </c>
       <c r="L4">
-        <v>0.8642299139117353</v>
+        <v>1.039912074380845</v>
       </c>
       <c r="M4">
-        <v>0.8110685786427776</v>
+        <v>1.047280504115774</v>
       </c>
       <c r="N4">
-        <v>0.8535446785595823</v>
+        <v>1.038599860527877</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8381906269217031</v>
+        <v>1.019383471937799</v>
       </c>
       <c r="D5">
-        <v>0.8472329628728381</v>
+        <v>1.031251003526374</v>
       </c>
       <c r="E5">
-        <v>0.8615677873249131</v>
+        <v>1.031182859317378</v>
       </c>
       <c r="F5">
-        <v>0.8105245520107687</v>
+        <v>1.038737695671861</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.048021627852642</v>
       </c>
       <c r="J5">
-        <v>0.8622822803600207</v>
+        <v>1.037861832020865</v>
       </c>
       <c r="K5">
-        <v>0.8593244118748422</v>
+        <v>1.040770814906839</v>
       </c>
       <c r="L5">
-        <v>0.873407962364063</v>
+        <v>1.040703413973184</v>
       </c>
       <c r="M5">
-        <v>0.8233128136249878</v>
+        <v>1.048176574534358</v>
       </c>
       <c r="N5">
-        <v>0.8635068201032918</v>
+        <v>1.039335714866751</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8399604820022196</v>
+        <v>1.019585234410645</v>
       </c>
       <c r="D6">
-        <v>0.8489379286351475</v>
+        <v>1.031422433540851</v>
       </c>
       <c r="E6">
-        <v>0.863114663542058</v>
+        <v>1.031353251664549</v>
       </c>
       <c r="F6">
-        <v>0.8125801662397462</v>
+        <v>1.038925428709882</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045370270238388</v>
+        <v>1.048056527395408</v>
       </c>
       <c r="J6">
-        <v>0.8638797553969573</v>
+        <v>1.03798469279428</v>
       </c>
       <c r="K6">
-        <v>0.8609515420102394</v>
+        <v>1.040904197756899</v>
       </c>
       <c r="L6">
-        <v>0.8748821111609041</v>
+        <v>1.040835766941975</v>
       </c>
       <c r="M6">
-        <v>0.825276723561631</v>
+        <v>1.048326464988487</v>
       </c>
       <c r="N6">
-        <v>0.865106563738014</v>
+        <v>1.039458750116556</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8273230186468566</v>
+        <v>1.018193302249669</v>
       </c>
       <c r="D7">
-        <v>0.8367669711923558</v>
+        <v>1.030240200261295</v>
       </c>
       <c r="E7">
-        <v>0.8520749730582331</v>
+        <v>1.030178218224328</v>
       </c>
       <c r="F7">
-        <v>0.7978859421826147</v>
+        <v>1.037630856460221</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.047814759475124</v>
       </c>
       <c r="J7">
-        <v>0.8524724832786229</v>
+        <v>1.037136874596426</v>
       </c>
       <c r="K7">
-        <v>0.8493334423943442</v>
+        <v>1.039983970350661</v>
       </c>
       <c r="L7">
-        <v>0.8643574084796332</v>
+        <v>1.039922683075018</v>
       </c>
       <c r="M7">
-        <v>0.8112388773370819</v>
+        <v>1.047292515417976</v>
       </c>
       <c r="N7">
-        <v>0.853683091984839</v>
+        <v>1.038609727919616</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7534782072524063</v>
+        <v>1.012257914916729</v>
       </c>
       <c r="D8">
-        <v>0.7658148228477135</v>
+        <v>1.02521034786373</v>
       </c>
       <c r="E8">
-        <v>0.7878948441993042</v>
+        <v>1.025180105950407</v>
       </c>
       <c r="F8">
-        <v>0.7109821744849436</v>
+        <v>1.032125305083111</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.046758919006608</v>
       </c>
       <c r="J8">
-        <v>0.785827021938259</v>
+        <v>1.033516419465095</v>
       </c>
       <c r="K8">
-        <v>0.7814935142181364</v>
+        <v>1.036059322874221</v>
       </c>
       <c r="L8">
-        <v>0.8029949382389989</v>
+        <v>1.036029465834443</v>
       </c>
       <c r="M8">
-        <v>0.7283151511768081</v>
+        <v>1.042887015256905</v>
       </c>
       <c r="N8">
-        <v>0.7869429864450304</v>
+        <v>1.034984131326726</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7534782072524063</v>
+        <v>1.001322218777942</v>
       </c>
       <c r="D9">
-        <v>0.7658148228477135</v>
+        <v>1.015989545923291</v>
       </c>
       <c r="E9">
-        <v>0.7878948441993042</v>
+        <v>1.01602180755965</v>
       </c>
       <c r="F9">
-        <v>0.7109821744849436</v>
+        <v>1.02204051863579</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045260356825638</v>
+        <v>1.044721025705379</v>
       </c>
       <c r="J9">
-        <v>0.785827021938259</v>
+        <v>1.026828372334928</v>
       </c>
       <c r="K9">
-        <v>0.7814935142181364</v>
+        <v>1.028828423276777</v>
       </c>
       <c r="L9">
-        <v>0.8029949382389989</v>
+        <v>1.028860182360362</v>
       </c>
       <c r="M9">
-        <v>0.7283151511768081</v>
+        <v>1.034785845826498</v>
       </c>
       <c r="N9">
-        <v>0.7869429864450304</v>
+        <v>1.028286586402504</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7534782072524063</v>
+        <v>0.993676096316195</v>
       </c>
       <c r="D10">
-        <v>0.7658148228477135</v>
+        <v>1.009576933297885</v>
       </c>
       <c r="E10">
-        <v>0.7878948441993042</v>
+        <v>1.009655664122457</v>
       </c>
       <c r="F10">
-        <v>0.7109821744849436</v>
+        <v>1.015031979319459</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045260356825638</v>
+        <v>1.04323638596783</v>
       </c>
       <c r="J10">
-        <v>0.785827021938259</v>
+        <v>1.022142884636337</v>
       </c>
       <c r="K10">
-        <v>0.7814935142181364</v>
+        <v>1.023775399700827</v>
       </c>
       <c r="L10">
-        <v>0.8029949382389989</v>
+        <v>1.023852743903759</v>
       </c>
       <c r="M10">
-        <v>0.7283151511768081</v>
+        <v>1.029135029114419</v>
       </c>
       <c r="N10">
-        <v>0.7869429864450304</v>
+        <v>1.023594444773948</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7534782072524063</v>
+        <v>0.9902723855086465</v>
       </c>
       <c r="D11">
-        <v>0.7658148228477135</v>
+        <v>1.006731221188685</v>
       </c>
       <c r="E11">
-        <v>0.7878948441993042</v>
+        <v>1.006831305601665</v>
       </c>
       <c r="F11">
-        <v>0.7109821744849436</v>
+        <v>1.011922861749736</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045260356825638</v>
+        <v>1.042561975571645</v>
       </c>
       <c r="J11">
-        <v>0.785827021938259</v>
+        <v>1.020055519710808</v>
       </c>
       <c r="K11">
-        <v>0.7814935142181364</v>
+        <v>1.021527303248089</v>
       </c>
       <c r="L11">
-        <v>0.8029949382389989</v>
+        <v>1.02162553322345</v>
       </c>
       <c r="M11">
-        <v>0.7283151511768081</v>
+        <v>1.026623379423838</v>
       </c>
       <c r="N11">
-        <v>0.7869429864450304</v>
+        <v>1.021504115550801</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7534782072524063</v>
+        <v>0.9889933579068924</v>
       </c>
       <c r="D12">
-        <v>0.7658148228477135</v>
+        <v>1.0056632764124</v>
       </c>
       <c r="E12">
-        <v>0.7878948441993042</v>
+        <v>1.005771486298101</v>
       </c>
       <c r="F12">
-        <v>0.7109821744849436</v>
+        <v>1.010756212249041</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045260356825638</v>
+        <v>1.042306577154696</v>
       </c>
       <c r="J12">
-        <v>0.785827021938259</v>
+        <v>1.01927095544911</v>
       </c>
       <c r="K12">
-        <v>0.7814935142181364</v>
+        <v>1.020682775371656</v>
       </c>
       <c r="L12">
-        <v>0.8029949382389989</v>
+        <v>1.020788942811916</v>
       </c>
       <c r="M12">
-        <v>0.7283151511768081</v>
+        <v>1.02568020134101</v>
       </c>
       <c r="N12">
-        <v>0.7869429864450304</v>
+        <v>1.020718437117861</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7534782072524063</v>
+        <v>0.9892683937573086</v>
       </c>
       <c r="D13">
-        <v>0.7658148228477135</v>
+        <v>1.005892857658873</v>
       </c>
       <c r="E13">
-        <v>0.7878948441993042</v>
+        <v>1.005999315686298</v>
       </c>
       <c r="F13">
-        <v>0.7109821744849436</v>
+        <v>1.011007006078471</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045260356825638</v>
+        <v>1.042361584931218</v>
       </c>
       <c r="J13">
-        <v>0.785827021938259</v>
+        <v>1.019439671819893</v>
       </c>
       <c r="K13">
-        <v>0.7814935142181364</v>
+        <v>1.020864366317251</v>
       </c>
       <c r="L13">
-        <v>0.8029949382389989</v>
+        <v>1.020968822896949</v>
       </c>
       <c r="M13">
-        <v>0.7283151511768081</v>
+        <v>1.025882988051342</v>
       </c>
       <c r="N13">
-        <v>0.7869429864450304</v>
+        <v>1.020887393085242</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7534782072524063</v>
+        <v>0.9901669660544533</v>
       </c>
       <c r="D14">
-        <v>0.7658148228477135</v>
+        <v>1.006643170645154</v>
       </c>
       <c r="E14">
-        <v>0.7878948441993042</v>
+        <v>1.006743922706157</v>
       </c>
       <c r="F14">
-        <v>0.7109821744849436</v>
+        <v>1.011826670222685</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045260356825638</v>
+        <v>1.042540964978587</v>
       </c>
       <c r="J14">
-        <v>0.785827021938259</v>
+        <v>1.019990858155312</v>
       </c>
       <c r="K14">
-        <v>0.7814935142181364</v>
+        <v>1.021457690535742</v>
       </c>
       <c r="L14">
-        <v>0.8029949382389989</v>
+        <v>1.021556572917786</v>
       </c>
       <c r="M14">
-        <v>0.7283151511768081</v>
+        <v>1.026545627940604</v>
       </c>
       <c r="N14">
-        <v>0.7869429864450304</v>
+        <v>1.021439362168479</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7534782072524063</v>
+        <v>0.9907186288639708</v>
       </c>
       <c r="D15">
-        <v>0.7658148228477135</v>
+        <v>1.007103998991735</v>
       </c>
       <c r="E15">
-        <v>0.7878948441993042</v>
+        <v>1.007201261370118</v>
       </c>
       <c r="F15">
-        <v>0.7109821744849436</v>
+        <v>1.012330111784628</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045260356825638</v>
+        <v>1.042650833931522</v>
       </c>
       <c r="J15">
-        <v>0.785827021938259</v>
+        <v>1.02032922654874</v>
       </c>
       <c r="K15">
-        <v>0.7814935142181364</v>
+        <v>1.021821986220599</v>
       </c>
       <c r="L15">
-        <v>0.8029949382389989</v>
+        <v>1.021917458174036</v>
       </c>
       <c r="M15">
-        <v>0.7283151511768081</v>
+        <v>1.026952529792913</v>
       </c>
       <c r="N15">
-        <v>0.7869429864450304</v>
+        <v>1.021778211083837</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7534782072524063</v>
+        <v>0.9938999667883527</v>
       </c>
       <c r="D16">
-        <v>0.7658148228477135</v>
+        <v>1.009764293555403</v>
       </c>
       <c r="E16">
-        <v>0.7878948441993042</v>
+        <v>1.009841633898209</v>
       </c>
       <c r="F16">
-        <v>0.7109821744849436</v>
+        <v>1.015236703016682</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045260356825638</v>
+        <v>1.043280466865176</v>
       </c>
       <c r="J16">
-        <v>0.785827021938259</v>
+        <v>1.022280147030641</v>
       </c>
       <c r="K16">
-        <v>0.7814935142181364</v>
+        <v>1.023923294011476</v>
       </c>
       <c r="L16">
-        <v>0.8029949382389989</v>
+        <v>1.023999276866574</v>
       </c>
       <c r="M16">
-        <v>0.7283151511768081</v>
+        <v>1.029300311437085</v>
       </c>
       <c r="N16">
-        <v>0.7869429864450304</v>
+        <v>1.023731902096596</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7534782072524063</v>
+        <v>0.9958701316038847</v>
       </c>
       <c r="D17">
-        <v>0.7658148228477135</v>
+        <v>1.0114141716592</v>
       </c>
       <c r="E17">
-        <v>0.7878948441993042</v>
+        <v>1.011479351232964</v>
       </c>
       <c r="F17">
-        <v>0.7109821744849436</v>
+        <v>1.017039600256149</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045260356825638</v>
+        <v>1.043666867605064</v>
       </c>
       <c r="J17">
-        <v>0.785827021938259</v>
+        <v>1.023487944908159</v>
       </c>
       <c r="K17">
-        <v>0.7814935142181364</v>
+        <v>1.025224985775621</v>
       </c>
       <c r="L17">
-        <v>0.8029949382389989</v>
+        <v>1.025289055675543</v>
       </c>
       <c r="M17">
-        <v>0.7283151511768081</v>
+        <v>1.030755317224246</v>
       </c>
       <c r="N17">
-        <v>0.7869429864450304</v>
+        <v>1.024941415185637</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7534782072524063</v>
+        <v>0.9970103885908704</v>
       </c>
       <c r="D18">
-        <v>0.7658148228477135</v>
+        <v>1.012369898560325</v>
       </c>
       <c r="E18">
-        <v>0.7878948441993042</v>
+        <v>1.012428103223606</v>
       </c>
       <c r="F18">
-        <v>0.7109821744849436</v>
+        <v>1.018084067088177</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045260356825638</v>
+        <v>1.043889215168088</v>
       </c>
       <c r="J18">
-        <v>0.785827021938259</v>
+        <v>1.024186817569445</v>
       </c>
       <c r="K18">
-        <v>0.7814935142181364</v>
+        <v>1.025978473705095</v>
       </c>
       <c r="L18">
-        <v>0.8029949382389989</v>
+        <v>1.026035705143912</v>
       </c>
       <c r="M18">
-        <v>0.7283151511768081</v>
+        <v>1.03159778007557</v>
       </c>
       <c r="N18">
-        <v>0.7869429864450304</v>
+        <v>1.025641280326263</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7534782072524063</v>
+        <v>0.9973976988729032</v>
       </c>
       <c r="D19">
-        <v>0.7658148228477135</v>
+        <v>1.012694670212553</v>
       </c>
       <c r="E19">
-        <v>0.7878948441993042</v>
+        <v>1.012750516417781</v>
       </c>
       <c r="F19">
-        <v>0.7109821744849436</v>
+        <v>1.018439011359484</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045260356825638</v>
+        <v>1.04396451986227</v>
       </c>
       <c r="J19">
-        <v>0.785827021938259</v>
+        <v>1.024424175267593</v>
       </c>
       <c r="K19">
-        <v>0.7814935142181364</v>
+        <v>1.026234428771558</v>
       </c>
       <c r="L19">
-        <v>0.8029949382389989</v>
+        <v>1.026289346947295</v>
       </c>
       <c r="M19">
-        <v>0.7283151511768081</v>
+        <v>1.031883998274921</v>
       </c>
       <c r="N19">
-        <v>0.7869429864450304</v>
+        <v>1.025878975099568</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7534782072524063</v>
+        <v>0.9956596783178508</v>
       </c>
       <c r="D20">
-        <v>0.7658148228477135</v>
+        <v>1.01123784387391</v>
       </c>
       <c r="E20">
-        <v>0.7878948441993042</v>
+        <v>1.011304315890255</v>
       </c>
       <c r="F20">
-        <v>0.7109821744849436</v>
+        <v>1.016846908491413</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045260356825638</v>
+        <v>1.043625725292533</v>
       </c>
       <c r="J20">
-        <v>0.785827021938259</v>
+        <v>1.02335894348543</v>
       </c>
       <c r="K20">
-        <v>0.7814935142181364</v>
+        <v>1.025085926250662</v>
       </c>
       <c r="L20">
-        <v>0.8029949382389989</v>
+        <v>1.025151262852718</v>
       </c>
       <c r="M20">
-        <v>0.7283151511768081</v>
+        <v>1.030599855495109</v>
       </c>
       <c r="N20">
-        <v>0.7869429864450304</v>
+        <v>1.024812230566091</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7534782072524063</v>
+        <v>0.9899027723065473</v>
       </c>
       <c r="D21">
-        <v>0.7658148228477135</v>
+        <v>1.006422528260645</v>
       </c>
       <c r="E21">
-        <v>0.7878948441993042</v>
+        <v>1.006524955163545</v>
       </c>
       <c r="F21">
-        <v>0.7109821744849436</v>
+        <v>1.011585629993963</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045260356825638</v>
+        <v>1.04248827835377</v>
       </c>
       <c r="J21">
-        <v>0.785827021938259</v>
+        <v>1.019828805765924</v>
       </c>
       <c r="K21">
-        <v>0.7814935142181364</v>
+        <v>1.02128323697574</v>
       </c>
       <c r="L21">
-        <v>0.8029949382389989</v>
+        <v>1.021383755802606</v>
       </c>
       <c r="M21">
-        <v>0.7283151511768081</v>
+        <v>1.026350783880149</v>
       </c>
       <c r="N21">
-        <v>0.7869429864450304</v>
+        <v>1.021277079646111</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7534782072524063</v>
+        <v>0.9861974797511606</v>
       </c>
       <c r="D22">
-        <v>0.7658148228477135</v>
+        <v>1.003331463565981</v>
       </c>
       <c r="E22">
-        <v>0.7878948441993042</v>
+        <v>1.003457622806369</v>
       </c>
       <c r="F22">
-        <v>0.7109821744849436</v>
+        <v>1.008209138939241</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045260356825638</v>
+        <v>1.041744731376675</v>
       </c>
       <c r="J22">
-        <v>0.785827021938259</v>
+        <v>1.017555664763474</v>
       </c>
       <c r="K22">
-        <v>0.7814935142181364</v>
+        <v>1.018837211150328</v>
       </c>
       <c r="L22">
-        <v>0.8029949382389989</v>
+        <v>1.018960893298167</v>
       </c>
       <c r="M22">
-        <v>0.7283151511768081</v>
+        <v>1.023619706654895</v>
       </c>
       <c r="N22">
-        <v>0.7869429864450304</v>
+        <v>1.019000710522704</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7534782072524063</v>
+        <v>0.9881701244641322</v>
       </c>
       <c r="D23">
-        <v>0.7658148228477135</v>
+        <v>1.004976307548888</v>
       </c>
       <c r="E23">
-        <v>0.7878948441993042</v>
+        <v>1.005089776007111</v>
       </c>
       <c r="F23">
-        <v>0.7109821744849436</v>
+        <v>1.01000579026249</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045260356825638</v>
+        <v>1.042141644248261</v>
       </c>
       <c r="J23">
-        <v>0.785827021938259</v>
+        <v>1.018765933035492</v>
       </c>
       <c r="K23">
-        <v>0.7814935142181364</v>
+        <v>1.020139280953508</v>
       </c>
       <c r="L23">
-        <v>0.8029949382389989</v>
+        <v>1.020250582378295</v>
       </c>
       <c r="M23">
-        <v>0.7283151511768081</v>
+        <v>1.025073320855314</v>
       </c>
       <c r="N23">
-        <v>0.7869429864450304</v>
+        <v>1.020212697514488</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7534782072524063</v>
+        <v>0.9957548005666383</v>
       </c>
       <c r="D24">
-        <v>0.7658148228477135</v>
+        <v>1.011317539225116</v>
       </c>
       <c r="E24">
-        <v>0.7878948441993042</v>
+        <v>1.011383426877479</v>
       </c>
       <c r="F24">
-        <v>0.7109821744849436</v>
+        <v>1.016933999603322</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045260356825638</v>
+        <v>1.043644325095769</v>
       </c>
       <c r="J24">
-        <v>0.785827021938259</v>
+        <v>1.023417250997463</v>
       </c>
       <c r="K24">
-        <v>0.7814935142181364</v>
+        <v>1.025148779052578</v>
       </c>
       <c r="L24">
-        <v>0.8029949382389989</v>
+        <v>1.02521354294656</v>
       </c>
       <c r="M24">
-        <v>0.7283151511768081</v>
+        <v>1.030670121135964</v>
       </c>
       <c r="N24">
-        <v>0.7869429864450304</v>
+        <v>1.024870620881479</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7534782072524063</v>
+        <v>1.004209333861582</v>
       </c>
       <c r="D25">
-        <v>0.7658148228477135</v>
+        <v>1.018418196914882</v>
       </c>
       <c r="E25">
-        <v>0.7878948441993042</v>
+        <v>1.018433483431587</v>
       </c>
       <c r="F25">
-        <v>0.7109821744849436</v>
+        <v>1.024695841652372</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045260356825638</v>
+        <v>1.045269560643274</v>
       </c>
       <c r="J25">
-        <v>0.785827021938259</v>
+        <v>1.028595862811973</v>
       </c>
       <c r="K25">
-        <v>0.7814935142181364</v>
+        <v>1.03073716728181</v>
       </c>
       <c r="L25">
-        <v>0.8029949382389989</v>
+        <v>1.030752227284408</v>
       </c>
       <c r="M25">
-        <v>0.7283151511768081</v>
+        <v>1.036922511767357</v>
       </c>
       <c r="N25">
-        <v>0.7869429864450304</v>
+        <v>1.030056586918761</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010698759239443</v>
+        <v>1.044109778800644</v>
       </c>
       <c r="D2">
-        <v>1.023892058939393</v>
+        <v>1.051547795521744</v>
       </c>
       <c r="E2">
-        <v>1.023870421312132</v>
+        <v>1.05165889873041</v>
       </c>
       <c r="F2">
-        <v>1.0306828960357</v>
+        <v>1.06161246174445</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046475298863774</v>
+        <v>1.035039329122346</v>
       </c>
       <c r="J2">
-        <v>1.032564114166955</v>
+        <v>1.049176623706213</v>
       </c>
       <c r="K2">
-        <v>1.035028279341204</v>
+        <v>1.054298993529602</v>
       </c>
       <c r="L2">
-        <v>1.03500692578635</v>
+        <v>1.054409788818577</v>
       </c>
       <c r="M2">
-        <v>1.041730699379481</v>
+        <v>1.064336048967985</v>
       </c>
       <c r="N2">
-        <v>1.034030473645836</v>
+        <v>1.050666574854116</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015275103059755</v>
+        <v>1.045088906102785</v>
       </c>
       <c r="D3">
-        <v>1.027764940947453</v>
+        <v>1.052427921328022</v>
       </c>
       <c r="E3">
-        <v>1.027718358717571</v>
+        <v>1.052536067114041</v>
       </c>
       <c r="F3">
-        <v>1.034921060846698</v>
+        <v>1.062587453226967</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047300524868086</v>
+        <v>1.035146189136606</v>
       </c>
       <c r="J3">
-        <v>1.035357841179368</v>
+        <v>1.049802725543827</v>
       </c>
       <c r="K3">
-        <v>1.03805447420924</v>
+        <v>1.054991614008665</v>
       </c>
       <c r="L3">
-        <v>1.038008448751548</v>
+        <v>1.055099481746786</v>
       </c>
       <c r="M3">
-        <v>1.045125797816733</v>
+        <v>1.065125291556436</v>
       </c>
       <c r="N3">
-        <v>1.036828168071048</v>
+        <v>1.051293565828155</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018177129974594</v>
+        <v>1.045722916515794</v>
       </c>
       <c r="D4">
-        <v>1.030226470411325</v>
+        <v>1.052998172243164</v>
       </c>
       <c r="E4">
-        <v>1.030164572587667</v>
+        <v>1.053104456201761</v>
       </c>
       <c r="F4">
-        <v>1.03761582320868</v>
+        <v>1.063219344395726</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047811936845632</v>
+        <v>1.035213896041238</v>
       </c>
       <c r="J4">
-        <v>1.037127021197644</v>
+        <v>1.050207686451972</v>
       </c>
       <c r="K4">
-        <v>1.039973278133019</v>
+        <v>1.055439896920143</v>
       </c>
       <c r="L4">
-        <v>1.039912074380845</v>
+        <v>1.055545921379931</v>
       </c>
       <c r="M4">
-        <v>1.047280504115774</v>
+        <v>1.065636368521232</v>
       </c>
       <c r="N4">
-        <v>1.038599860527877</v>
+        <v>1.051699101827239</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019383471937799</v>
+        <v>1.045989561196936</v>
       </c>
       <c r="D5">
-        <v>1.031251003526374</v>
+        <v>1.053238084134265</v>
       </c>
       <c r="E5">
-        <v>1.031182859317378</v>
+        <v>1.053343597781327</v>
       </c>
       <c r="F5">
-        <v>1.038737695671861</v>
+        <v>1.063485231072236</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048021627852642</v>
+        <v>1.03524201508004</v>
       </c>
       <c r="J5">
-        <v>1.037861832020865</v>
+        <v>1.050377890610572</v>
       </c>
       <c r="K5">
-        <v>1.040770814906839</v>
+        <v>1.055628380600714</v>
       </c>
       <c r="L5">
-        <v>1.040703413973184</v>
+        <v>1.055733642368375</v>
       </c>
       <c r="M5">
-        <v>1.048176574534358</v>
+        <v>1.065851316106283</v>
       </c>
       <c r="N5">
-        <v>1.039335714866751</v>
+        <v>1.051869547695268</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019585234410645</v>
+        <v>1.046034338242518</v>
       </c>
       <c r="D6">
-        <v>1.031422433540851</v>
+        <v>1.05327837682037</v>
       </c>
       <c r="E6">
-        <v>1.031353251664549</v>
+        <v>1.05338376185575</v>
       </c>
       <c r="F6">
-        <v>1.038925428709882</v>
+        <v>1.063529888628663</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048056527395408</v>
+        <v>1.0352467161475</v>
       </c>
       <c r="J6">
-        <v>1.03798469279428</v>
+        <v>1.050406466180987</v>
       </c>
       <c r="K6">
-        <v>1.040904197756899</v>
+        <v>1.055660029307075</v>
       </c>
       <c r="L6">
-        <v>1.040835766941975</v>
+        <v>1.055765163732146</v>
       </c>
       <c r="M6">
-        <v>1.048326464988487</v>
+        <v>1.06588741204426</v>
       </c>
       <c r="N6">
-        <v>1.039458750116556</v>
+        <v>1.051898163846269</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018193302249669</v>
+        <v>1.045726479016955</v>
       </c>
       <c r="D7">
-        <v>1.030240200261295</v>
+        <v>1.053001377258218</v>
       </c>
       <c r="E7">
-        <v>1.030178218224328</v>
+        <v>1.053107650875156</v>
       </c>
       <c r="F7">
-        <v>1.037630856460221</v>
+        <v>1.063222896246594</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047814759475124</v>
+        <v>1.035214273125258</v>
       </c>
       <c r="J7">
-        <v>1.037136874596426</v>
+        <v>1.050209960892209</v>
       </c>
       <c r="K7">
-        <v>1.039983970350661</v>
+        <v>1.055442415349272</v>
       </c>
       <c r="L7">
-        <v>1.039922683075018</v>
+        <v>1.055548429569903</v>
       </c>
       <c r="M7">
-        <v>1.047292515417976</v>
+        <v>1.065639240305941</v>
       </c>
       <c r="N7">
-        <v>1.038609727919616</v>
+        <v>1.051701379497442</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012257914916729</v>
+        <v>1.044440585811109</v>
       </c>
       <c r="D8">
-        <v>1.02521034786373</v>
+        <v>1.051845081943805</v>
       </c>
       <c r="E8">
-        <v>1.025180105950407</v>
+        <v>1.051955174943943</v>
       </c>
       <c r="F8">
-        <v>1.032125305083111</v>
+        <v>1.061941755484674</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046758919006608</v>
+        <v>1.035075740535943</v>
       </c>
       <c r="J8">
-        <v>1.033516419465095</v>
+        <v>1.049388252122206</v>
       </c>
       <c r="K8">
-        <v>1.036059322874221</v>
+        <v>1.054533044209477</v>
       </c>
       <c r="L8">
-        <v>1.036029465834443</v>
+        <v>1.054642839551593</v>
       </c>
       <c r="M8">
-        <v>1.042887015256905</v>
+        <v>1.064602696941359</v>
       </c>
       <c r="N8">
-        <v>1.034984131326726</v>
+        <v>1.050878503806734</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001322218777942</v>
+        <v>1.042178161752513</v>
       </c>
       <c r="D9">
-        <v>1.015989545923291</v>
+        <v>1.049813348635986</v>
       </c>
       <c r="E9">
-        <v>1.01602180755965</v>
+        <v>1.049930569035917</v>
       </c>
       <c r="F9">
-        <v>1.02204051863579</v>
+        <v>1.05969198872737</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044721025705379</v>
+        <v>1.034820633005201</v>
       </c>
       <c r="J9">
-        <v>1.026828372334928</v>
+        <v>1.047939046552157</v>
       </c>
       <c r="K9">
-        <v>1.028828423276777</v>
+        <v>1.052931514279355</v>
       </c>
       <c r="L9">
-        <v>1.028860182360362</v>
+        <v>1.053048363267131</v>
       </c>
       <c r="M9">
-        <v>1.034785845826498</v>
+        <v>1.062779168954785</v>
       </c>
       <c r="N9">
-        <v>1.028286586402504</v>
+        <v>1.049427240198549</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.993676096316195</v>
+        <v>1.040672275131688</v>
       </c>
       <c r="D10">
-        <v>1.009576933297885</v>
+        <v>1.048462840650646</v>
       </c>
       <c r="E10">
-        <v>1.009655664122457</v>
+        <v>1.048585080056355</v>
       </c>
       <c r="F10">
-        <v>1.015031979319459</v>
+        <v>1.058197444165698</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04323638596783</v>
+        <v>1.034643199459826</v>
       </c>
       <c r="J10">
-        <v>1.022142884636337</v>
+        <v>1.04697212700807</v>
       </c>
       <c r="K10">
-        <v>1.023775399700827</v>
+        <v>1.051864494046498</v>
       </c>
       <c r="L10">
-        <v>1.023852743903759</v>
+        <v>1.051986308121639</v>
       </c>
       <c r="M10">
-        <v>1.029135029114419</v>
+        <v>1.061565564520412</v>
       </c>
       <c r="N10">
-        <v>1.023594444773948</v>
+        <v>1.048458947517803</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9902723855086465</v>
+        <v>1.040020788735786</v>
       </c>
       <c r="D11">
-        <v>1.006731221188685</v>
+        <v>1.047879015902738</v>
       </c>
       <c r="E11">
-        <v>1.006831305601665</v>
+        <v>1.048003492109274</v>
       </c>
       <c r="F11">
-        <v>1.011922861749736</v>
+        <v>1.057551563060962</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042561975571645</v>
+        <v>1.034564629031248</v>
       </c>
       <c r="J11">
-        <v>1.020055519710808</v>
+        <v>1.046553266483234</v>
       </c>
       <c r="K11">
-        <v>1.021527303248089</v>
+        <v>1.051402633474813</v>
       </c>
       <c r="L11">
-        <v>1.02162553322345</v>
+        <v>1.051526659770704</v>
       </c>
       <c r="M11">
-        <v>1.026623379423838</v>
+        <v>1.061040568016095</v>
       </c>
       <c r="N11">
-        <v>1.021504115550801</v>
+        <v>1.048039492162978</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9889933579068924</v>
+        <v>1.039778884495385</v>
       </c>
       <c r="D12">
-        <v>1.0056632764124</v>
+        <v>1.047662301995003</v>
       </c>
       <c r="E12">
-        <v>1.005771486298101</v>
+        <v>1.047787618604117</v>
       </c>
       <c r="F12">
-        <v>1.010756212249041</v>
+        <v>1.057311845612988</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042306577154696</v>
+        <v>1.034535183465061</v>
       </c>
       <c r="J12">
-        <v>1.01927095544911</v>
+        <v>1.046397657217155</v>
       </c>
       <c r="K12">
-        <v>1.020682775371656</v>
+        <v>1.051231103874398</v>
       </c>
       <c r="L12">
-        <v>1.020788942811916</v>
+        <v>1.051355961248561</v>
       </c>
       <c r="M12">
-        <v>1.02568020134101</v>
+        <v>1.060845637490895</v>
       </c>
       <c r="N12">
-        <v>1.020718437117861</v>
+        <v>1.047883661913892</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9892683937573086</v>
+        <v>1.039830769834512</v>
       </c>
       <c r="D13">
-        <v>1.005892857658873</v>
+        <v>1.047708781300365</v>
       </c>
       <c r="E13">
-        <v>1.005999315686298</v>
+        <v>1.047833917207735</v>
       </c>
       <c r="F13">
-        <v>1.011007006078471</v>
+        <v>1.057363257130822</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042361584931218</v>
+        <v>1.03454151144246</v>
       </c>
       <c r="J13">
-        <v>1.019439671819893</v>
+        <v>1.046431037086427</v>
       </c>
       <c r="K13">
-        <v>1.020864366317251</v>
+        <v>1.051267896364133</v>
       </c>
       <c r="L13">
-        <v>1.020968822896949</v>
+        <v>1.051392575045578</v>
       </c>
       <c r="M13">
-        <v>1.025882988051342</v>
+        <v>1.06088744726847</v>
       </c>
       <c r="N13">
-        <v>1.020887393085242</v>
+        <v>1.047917089186408</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9901669660544533</v>
+        <v>1.040000791080115</v>
       </c>
       <c r="D14">
-        <v>1.006643170645154</v>
+        <v>1.04786109930651</v>
       </c>
       <c r="E14">
-        <v>1.006743922706157</v>
+        <v>1.047985644786009</v>
       </c>
       <c r="F14">
-        <v>1.011826670222685</v>
+        <v>1.057531744026992</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042540964978587</v>
+        <v>1.034562200373295</v>
       </c>
       <c r="J14">
-        <v>1.019990858155312</v>
+        <v>1.046540404294084</v>
       </c>
       <c r="K14">
-        <v>1.021457690535742</v>
+        <v>1.051388454248721</v>
       </c>
       <c r="L14">
-        <v>1.021556572917786</v>
+        <v>1.051512549050839</v>
       </c>
       <c r="M14">
-        <v>1.026545627940604</v>
+        <v>1.061024453430077</v>
       </c>
       <c r="N14">
-        <v>1.021439362168479</v>
+        <v>1.048026611708044</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9907186288639708</v>
+        <v>1.040105558309036</v>
       </c>
       <c r="D15">
-        <v>1.007103998991735</v>
+        <v>1.047954966655396</v>
       </c>
       <c r="E15">
-        <v>1.007201261370118</v>
+        <v>1.048079149619224</v>
       </c>
       <c r="F15">
-        <v>1.012330111784628</v>
+        <v>1.05763557978494</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042650833931522</v>
+        <v>1.034574912934464</v>
       </c>
       <c r="J15">
-        <v>1.02032922654874</v>
+        <v>1.046607785646851</v>
       </c>
       <c r="K15">
-        <v>1.021821986220599</v>
+        <v>1.051462737413075</v>
       </c>
       <c r="L15">
-        <v>1.021917458174036</v>
+        <v>1.0515864737083</v>
       </c>
       <c r="M15">
-        <v>1.026952529792913</v>
+        <v>1.061108877624778</v>
       </c>
       <c r="N15">
-        <v>1.021778211083837</v>
+        <v>1.04809408875006</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9938999667883527</v>
+        <v>1.040715524268071</v>
       </c>
       <c r="D16">
-        <v>1.009764293555403</v>
+        <v>1.048501607385522</v>
       </c>
       <c r="E16">
-        <v>1.009841633898209</v>
+        <v>1.048623699681597</v>
       </c>
       <c r="F16">
-        <v>1.015236703016682</v>
+        <v>1.058240335960382</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043280466865176</v>
+        <v>1.034648377290744</v>
       </c>
       <c r="J16">
-        <v>1.022280147030641</v>
+        <v>1.046999921730454</v>
       </c>
       <c r="K16">
-        <v>1.023923294011476</v>
+        <v>1.05189514979967</v>
       </c>
       <c r="L16">
-        <v>1.023999276866574</v>
+        <v>1.052016818369736</v>
       </c>
       <c r="M16">
-        <v>1.029300311437085</v>
+        <v>1.06160041748439</v>
       </c>
       <c r="N16">
-        <v>1.023731902096596</v>
+        <v>1.048486781711881</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9958701316038847</v>
+        <v>1.04109829363055</v>
       </c>
       <c r="D17">
-        <v>1.0114141716592</v>
+        <v>1.048844757002942</v>
       </c>
       <c r="E17">
-        <v>1.011479351232964</v>
+        <v>1.048965554895923</v>
       </c>
       <c r="F17">
-        <v>1.017039600256149</v>
+        <v>1.058620023517924</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043666867605064</v>
+        <v>1.034693993892556</v>
       </c>
       <c r="J17">
-        <v>1.023487944908159</v>
+        <v>1.047245851335698</v>
       </c>
       <c r="K17">
-        <v>1.025224985775621</v>
+        <v>1.052166435880118</v>
       </c>
       <c r="L17">
-        <v>1.025289055675543</v>
+        <v>1.052286824101944</v>
       </c>
       <c r="M17">
-        <v>1.030755317224246</v>
+        <v>1.061908882686828</v>
       </c>
       <c r="N17">
-        <v>1.024941415185637</v>
+        <v>1.048733060565373</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9970103885908704</v>
+        <v>1.041321611702072</v>
       </c>
       <c r="D18">
-        <v>1.012369898560325</v>
+        <v>1.049045002344034</v>
       </c>
       <c r="E18">
-        <v>1.012428103223606</v>
+        <v>1.04916505136349</v>
       </c>
       <c r="F18">
-        <v>1.018084067088177</v>
+        <v>1.058841610965378</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043889215168088</v>
+        <v>1.034720433315938</v>
       </c>
       <c r="J18">
-        <v>1.024186817569445</v>
+        <v>1.047389280679076</v>
       </c>
       <c r="K18">
-        <v>1.025978473705095</v>
+        <v>1.052324688432343</v>
       </c>
       <c r="L18">
-        <v>1.026035705143912</v>
+        <v>1.052444335860228</v>
       </c>
       <c r="M18">
-        <v>1.03159778007557</v>
+        <v>1.062088853604218</v>
       </c>
       <c r="N18">
-        <v>1.025641280326263</v>
+        <v>1.04887669359487</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9973976988729032</v>
+        <v>1.04139776672802</v>
       </c>
       <c r="D19">
-        <v>1.012694670212553</v>
+        <v>1.049113296392988</v>
       </c>
       <c r="E19">
-        <v>1.012750516417781</v>
+        <v>1.049233091105378</v>
       </c>
       <c r="F19">
-        <v>1.018439011359484</v>
+        <v>1.0589171872336</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04396451986227</v>
+        <v>1.034729419970914</v>
       </c>
       <c r="J19">
-        <v>1.024424175267593</v>
+        <v>1.047438183427301</v>
       </c>
       <c r="K19">
-        <v>1.026234428771558</v>
+        <v>1.052378651141461</v>
       </c>
       <c r="L19">
-        <v>1.026289346947295</v>
+        <v>1.052498046997403</v>
       </c>
       <c r="M19">
-        <v>1.031883998274921</v>
+        <v>1.062150227209489</v>
       </c>
       <c r="N19">
-        <v>1.025878975099568</v>
+        <v>1.048925665790607</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9956596783178508</v>
+        <v>1.041057220387189</v>
       </c>
       <c r="D20">
-        <v>1.01123784387391</v>
+        <v>1.048807930774059</v>
       </c>
       <c r="E20">
-        <v>1.011304315890255</v>
+        <v>1.048928866910132</v>
       </c>
       <c r="F20">
-        <v>1.016846908491413</v>
+        <v>1.058579273995808</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043625725292533</v>
+        <v>1.034689117033172</v>
       </c>
       <c r="J20">
-        <v>1.02335894348543</v>
+        <v>1.047219467192469</v>
       </c>
       <c r="K20">
-        <v>1.025085926250662</v>
+        <v>1.052137327791831</v>
       </c>
       <c r="L20">
-        <v>1.025151262852718</v>
+        <v>1.052257852761104</v>
       </c>
       <c r="M20">
-        <v>1.030599855495109</v>
+        <v>1.061875782277382</v>
       </c>
       <c r="N20">
-        <v>1.024812230566091</v>
+        <v>1.048706638953635</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9899027723065473</v>
+        <v>1.039950721657914</v>
       </c>
       <c r="D21">
-        <v>1.006422528260645</v>
+        <v>1.04781624144844</v>
       </c>
       <c r="E21">
-        <v>1.006524955163545</v>
+        <v>1.047940960530388</v>
       </c>
       <c r="F21">
-        <v>1.011585629993963</v>
+        <v>1.057482123537534</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04248827835377</v>
+        <v>1.034556115200099</v>
       </c>
       <c r="J21">
-        <v>1.019828805765924</v>
+        <v>1.046508199082608</v>
       </c>
       <c r="K21">
-        <v>1.02128323697574</v>
+        <v>1.051352952231269</v>
       </c>
       <c r="L21">
-        <v>1.021383755802606</v>
+        <v>1.051477218712884</v>
       </c>
       <c r="M21">
-        <v>1.026350783880149</v>
+        <v>1.060984106408235</v>
       </c>
       <c r="N21">
-        <v>1.021277079646111</v>
+        <v>1.047994360761474</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9861974797511606</v>
+        <v>1.039255524676662</v>
       </c>
       <c r="D22">
-        <v>1.003331463565981</v>
+        <v>1.047193564231871</v>
       </c>
       <c r="E22">
-        <v>1.003457622806369</v>
+        <v>1.047320717089739</v>
       </c>
       <c r="F22">
-        <v>1.008209138939241</v>
+        <v>1.056793410388859</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041744731376675</v>
+        <v>1.03447098178193</v>
       </c>
       <c r="J22">
-        <v>1.017555664763474</v>
+        <v>1.046060847677795</v>
       </c>
       <c r="K22">
-        <v>1.018837211150328</v>
+        <v>1.050859934997094</v>
       </c>
       <c r="L22">
-        <v>1.018960893298167</v>
+        <v>1.050986608075908</v>
       </c>
       <c r="M22">
-        <v>1.023619706654895</v>
+        <v>1.060423917849645</v>
       </c>
       <c r="N22">
-        <v>1.019000710522704</v>
+        <v>1.047546374066354</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9881701244641322</v>
+        <v>1.039624013829161</v>
       </c>
       <c r="D23">
-        <v>1.004976307548888</v>
+        <v>1.04752357742842</v>
       </c>
       <c r="E23">
-        <v>1.005089776007111</v>
+        <v>1.047649434851925</v>
       </c>
       <c r="F23">
-        <v>1.01000579026249</v>
+        <v>1.057158404726424</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042141644248261</v>
+        <v>1.034516255575535</v>
       </c>
       <c r="J23">
-        <v>1.018765933035492</v>
+        <v>1.046298010928711</v>
       </c>
       <c r="K23">
-        <v>1.020139280953508</v>
+        <v>1.051121278129654</v>
       </c>
       <c r="L23">
-        <v>1.020250582378295</v>
+        <v>1.051246670291935</v>
       </c>
       <c r="M23">
-        <v>1.025073320855314</v>
+        <v>1.060720842002538</v>
       </c>
       <c r="N23">
-        <v>1.020212697514488</v>
+        <v>1.04778387411629</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9957548005666383</v>
+        <v>1.041075779447415</v>
       </c>
       <c r="D24">
-        <v>1.011317539225116</v>
+        <v>1.048824570677647</v>
       </c>
       <c r="E24">
-        <v>1.011383426877479</v>
+        <v>1.048945444328679</v>
       </c>
       <c r="F24">
-        <v>1.016933999603322</v>
+        <v>1.058597686573587</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043644325095769</v>
+        <v>1.034691321195043</v>
       </c>
       <c r="J24">
-        <v>1.023417250997463</v>
+        <v>1.04723138910442</v>
       </c>
       <c r="K24">
-        <v>1.025148779052578</v>
+        <v>1.052150480434714</v>
       </c>
       <c r="L24">
-        <v>1.02521354294656</v>
+        <v>1.052270943595129</v>
       </c>
       <c r="M24">
-        <v>1.030670121135964</v>
+        <v>1.061890738778209</v>
       </c>
       <c r="N24">
-        <v>1.024870620881479</v>
+        <v>1.048718577796068</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004209333861582</v>
+        <v>1.042762634215133</v>
       </c>
       <c r="D25">
-        <v>1.018418196914882</v>
+        <v>1.050337904358363</v>
       </c>
       <c r="E25">
-        <v>1.018433483431587</v>
+        <v>1.050453235049892</v>
       </c>
       <c r="F25">
-        <v>1.024695841652372</v>
+        <v>1.06027267891675</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045269560643274</v>
+        <v>1.034887884253527</v>
       </c>
       <c r="J25">
-        <v>1.028595862811973</v>
+        <v>1.048313843081121</v>
       </c>
       <c r="K25">
-        <v>1.03073716728181</v>
+        <v>1.053345435277081</v>
       </c>
       <c r="L25">
-        <v>1.030752227284408</v>
+        <v>1.053460414424799</v>
       </c>
       <c r="M25">
-        <v>1.036922511767357</v>
+        <v>1.063250232859562</v>
       </c>
       <c r="N25">
-        <v>1.030056586918761</v>
+        <v>1.049802568981574</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044109778800644</v>
+        <v>1.010698759239443</v>
       </c>
       <c r="D2">
-        <v>1.051547795521744</v>
+        <v>1.023892058939393</v>
       </c>
       <c r="E2">
-        <v>1.05165889873041</v>
+        <v>1.023870421312132</v>
       </c>
       <c r="F2">
-        <v>1.06161246174445</v>
+        <v>1.0306828960357</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035039329122346</v>
+        <v>1.046475298863774</v>
       </c>
       <c r="J2">
-        <v>1.049176623706213</v>
+        <v>1.032564114166955</v>
       </c>
       <c r="K2">
-        <v>1.054298993529602</v>
+        <v>1.035028279341204</v>
       </c>
       <c r="L2">
-        <v>1.054409788818577</v>
+        <v>1.03500692578635</v>
       </c>
       <c r="M2">
-        <v>1.064336048967985</v>
+        <v>1.041730699379481</v>
       </c>
       <c r="N2">
-        <v>1.050666574854116</v>
+        <v>1.034030473645835</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045088906102785</v>
+        <v>1.015275103059754</v>
       </c>
       <c r="D3">
-        <v>1.052427921328022</v>
+        <v>1.027764940947453</v>
       </c>
       <c r="E3">
-        <v>1.052536067114041</v>
+        <v>1.02771835871757</v>
       </c>
       <c r="F3">
-        <v>1.062587453226967</v>
+        <v>1.034921060846697</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035146189136606</v>
+        <v>1.047300524868086</v>
       </c>
       <c r="J3">
-        <v>1.049802725543827</v>
+        <v>1.035357841179368</v>
       </c>
       <c r="K3">
-        <v>1.054991614008665</v>
+        <v>1.038054474209239</v>
       </c>
       <c r="L3">
-        <v>1.055099481746786</v>
+        <v>1.038008448751547</v>
       </c>
       <c r="M3">
-        <v>1.065125291556436</v>
+        <v>1.045125797816733</v>
       </c>
       <c r="N3">
-        <v>1.051293565828155</v>
+        <v>1.036828168071047</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045722916515794</v>
+        <v>1.018177129974593</v>
       </c>
       <c r="D4">
-        <v>1.052998172243164</v>
+        <v>1.030226470411324</v>
       </c>
       <c r="E4">
-        <v>1.053104456201761</v>
+        <v>1.030164572587666</v>
       </c>
       <c r="F4">
-        <v>1.063219344395726</v>
+        <v>1.037615823208679</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035213896041238</v>
+        <v>1.047811936845632</v>
       </c>
       <c r="J4">
-        <v>1.050207686451972</v>
+        <v>1.037127021197644</v>
       </c>
       <c r="K4">
-        <v>1.055439896920143</v>
+        <v>1.039973278133018</v>
       </c>
       <c r="L4">
-        <v>1.055545921379931</v>
+        <v>1.039912074380844</v>
       </c>
       <c r="M4">
-        <v>1.065636368521232</v>
+        <v>1.047280504115773</v>
       </c>
       <c r="N4">
-        <v>1.051699101827239</v>
+        <v>1.038599860527877</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045989561196936</v>
+        <v>1.019383471937799</v>
       </c>
       <c r="D5">
-        <v>1.053238084134265</v>
+        <v>1.031251003526374</v>
       </c>
       <c r="E5">
-        <v>1.053343597781327</v>
+        <v>1.031182859317378</v>
       </c>
       <c r="F5">
-        <v>1.063485231072236</v>
+        <v>1.038737695671861</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03524201508004</v>
+        <v>1.048021627852642</v>
       </c>
       <c r="J5">
-        <v>1.050377890610572</v>
+        <v>1.037861832020865</v>
       </c>
       <c r="K5">
-        <v>1.055628380600714</v>
+        <v>1.040770814906839</v>
       </c>
       <c r="L5">
-        <v>1.055733642368375</v>
+        <v>1.040703413973184</v>
       </c>
       <c r="M5">
-        <v>1.065851316106283</v>
+        <v>1.048176574534358</v>
       </c>
       <c r="N5">
-        <v>1.051869547695268</v>
+        <v>1.039335714866751</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046034338242518</v>
+        <v>1.019585234410644</v>
       </c>
       <c r="D6">
-        <v>1.05327837682037</v>
+        <v>1.03142243354085</v>
       </c>
       <c r="E6">
-        <v>1.05338376185575</v>
+        <v>1.031353251664548</v>
       </c>
       <c r="F6">
-        <v>1.063529888628663</v>
+        <v>1.038925428709881</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0352467161475</v>
+        <v>1.048056527395408</v>
       </c>
       <c r="J6">
-        <v>1.050406466180987</v>
+        <v>1.037984692794279</v>
       </c>
       <c r="K6">
-        <v>1.055660029307075</v>
+        <v>1.040904197756898</v>
       </c>
       <c r="L6">
-        <v>1.055765163732146</v>
+        <v>1.040835766941973</v>
       </c>
       <c r="M6">
-        <v>1.06588741204426</v>
+        <v>1.048326464988486</v>
       </c>
       <c r="N6">
-        <v>1.051898163846269</v>
+        <v>1.039458750116555</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045726479016955</v>
+        <v>1.018193302249667</v>
       </c>
       <c r="D7">
-        <v>1.053001377258218</v>
+        <v>1.030240200261294</v>
       </c>
       <c r="E7">
-        <v>1.053107650875156</v>
+        <v>1.030178218224327</v>
       </c>
       <c r="F7">
-        <v>1.063222896246594</v>
+        <v>1.03763085646022</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035214273125258</v>
+        <v>1.047814759475123</v>
       </c>
       <c r="J7">
-        <v>1.050209960892209</v>
+        <v>1.037136874596425</v>
       </c>
       <c r="K7">
-        <v>1.055442415349272</v>
+        <v>1.03998397035066</v>
       </c>
       <c r="L7">
-        <v>1.055548429569903</v>
+        <v>1.039922683075016</v>
       </c>
       <c r="M7">
-        <v>1.065639240305941</v>
+        <v>1.047292515417974</v>
       </c>
       <c r="N7">
-        <v>1.051701379497442</v>
+        <v>1.038609727919614</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044440585811109</v>
+        <v>1.012257914916729</v>
       </c>
       <c r="D8">
-        <v>1.051845081943805</v>
+        <v>1.02521034786373</v>
       </c>
       <c r="E8">
-        <v>1.051955174943943</v>
+        <v>1.025180105950407</v>
       </c>
       <c r="F8">
-        <v>1.061941755484674</v>
+        <v>1.032125305083111</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035075740535943</v>
+        <v>1.046758919006608</v>
       </c>
       <c r="J8">
-        <v>1.049388252122206</v>
+        <v>1.033516419465095</v>
       </c>
       <c r="K8">
-        <v>1.054533044209477</v>
+        <v>1.036059322874221</v>
       </c>
       <c r="L8">
-        <v>1.054642839551593</v>
+        <v>1.036029465834443</v>
       </c>
       <c r="M8">
-        <v>1.064602696941359</v>
+        <v>1.042887015256905</v>
       </c>
       <c r="N8">
-        <v>1.050878503806734</v>
+        <v>1.034984131326726</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042178161752513</v>
+        <v>1.001322218777942</v>
       </c>
       <c r="D9">
-        <v>1.049813348635986</v>
+        <v>1.015989545923291</v>
       </c>
       <c r="E9">
-        <v>1.049930569035917</v>
+        <v>1.01602180755965</v>
       </c>
       <c r="F9">
-        <v>1.05969198872737</v>
+        <v>1.02204051863579</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034820633005201</v>
+        <v>1.044721025705379</v>
       </c>
       <c r="J9">
-        <v>1.047939046552157</v>
+        <v>1.026828372334928</v>
       </c>
       <c r="K9">
-        <v>1.052931514279355</v>
+        <v>1.028828423276776</v>
       </c>
       <c r="L9">
-        <v>1.053048363267131</v>
+        <v>1.028860182360362</v>
       </c>
       <c r="M9">
-        <v>1.062779168954785</v>
+        <v>1.034785845826497</v>
       </c>
       <c r="N9">
-        <v>1.049427240198549</v>
+        <v>1.028286586402504</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040672275131688</v>
+        <v>0.993676096316195</v>
       </c>
       <c r="D10">
-        <v>1.048462840650646</v>
+        <v>1.009576933297886</v>
       </c>
       <c r="E10">
-        <v>1.048585080056355</v>
+        <v>1.009655664122457</v>
       </c>
       <c r="F10">
-        <v>1.058197444165698</v>
+        <v>1.015031979319459</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034643199459826</v>
+        <v>1.04323638596783</v>
       </c>
       <c r="J10">
-        <v>1.04697212700807</v>
+        <v>1.022142884636337</v>
       </c>
       <c r="K10">
-        <v>1.051864494046498</v>
+        <v>1.023775399700827</v>
       </c>
       <c r="L10">
-        <v>1.051986308121639</v>
+        <v>1.023852743903759</v>
       </c>
       <c r="M10">
-        <v>1.061565564520412</v>
+        <v>1.029135029114419</v>
       </c>
       <c r="N10">
-        <v>1.048458947517803</v>
+        <v>1.023594444773948</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040020788735786</v>
+        <v>0.9902723855086465</v>
       </c>
       <c r="D11">
-        <v>1.047879015902738</v>
+        <v>1.006731221188685</v>
       </c>
       <c r="E11">
-        <v>1.048003492109274</v>
+        <v>1.006831305601665</v>
       </c>
       <c r="F11">
-        <v>1.057551563060962</v>
+        <v>1.011922861749736</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034564629031248</v>
+        <v>1.042561975571645</v>
       </c>
       <c r="J11">
-        <v>1.046553266483234</v>
+        <v>1.020055519710808</v>
       </c>
       <c r="K11">
-        <v>1.051402633474813</v>
+        <v>1.021527303248089</v>
       </c>
       <c r="L11">
-        <v>1.051526659770704</v>
+        <v>1.02162553322345</v>
       </c>
       <c r="M11">
-        <v>1.061040568016095</v>
+        <v>1.026623379423838</v>
       </c>
       <c r="N11">
-        <v>1.048039492162978</v>
+        <v>1.021504115550801</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039778884495385</v>
+        <v>0.9889933579068925</v>
       </c>
       <c r="D12">
-        <v>1.047662301995003</v>
+        <v>1.0056632764124</v>
       </c>
       <c r="E12">
-        <v>1.047787618604117</v>
+        <v>1.005771486298101</v>
       </c>
       <c r="F12">
-        <v>1.057311845612988</v>
+        <v>1.010756212249041</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034535183465061</v>
+        <v>1.042306577154696</v>
       </c>
       <c r="J12">
-        <v>1.046397657217155</v>
+        <v>1.01927095544911</v>
       </c>
       <c r="K12">
-        <v>1.051231103874398</v>
+        <v>1.020682775371656</v>
       </c>
       <c r="L12">
-        <v>1.051355961248561</v>
+        <v>1.020788942811916</v>
       </c>
       <c r="M12">
-        <v>1.060845637490895</v>
+        <v>1.02568020134101</v>
       </c>
       <c r="N12">
-        <v>1.047883661913892</v>
+        <v>1.020718437117861</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039830769834512</v>
+        <v>0.9892683937573088</v>
       </c>
       <c r="D13">
-        <v>1.047708781300365</v>
+        <v>1.005892857658874</v>
       </c>
       <c r="E13">
-        <v>1.047833917207735</v>
+        <v>1.005999315686298</v>
       </c>
       <c r="F13">
-        <v>1.057363257130822</v>
+        <v>1.011007006078471</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03454151144246</v>
+        <v>1.042361584931218</v>
       </c>
       <c r="J13">
-        <v>1.046431037086427</v>
+        <v>1.019439671819893</v>
       </c>
       <c r="K13">
-        <v>1.051267896364133</v>
+        <v>1.020864366317252</v>
       </c>
       <c r="L13">
-        <v>1.051392575045578</v>
+        <v>1.020968822896949</v>
       </c>
       <c r="M13">
-        <v>1.06088744726847</v>
+        <v>1.025882988051342</v>
       </c>
       <c r="N13">
-        <v>1.047917089186408</v>
+        <v>1.020887393085242</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040000791080115</v>
+        <v>0.9901669660544528</v>
       </c>
       <c r="D14">
-        <v>1.04786109930651</v>
+        <v>1.006643170645154</v>
       </c>
       <c r="E14">
-        <v>1.047985644786009</v>
+        <v>1.006743922706157</v>
       </c>
       <c r="F14">
-        <v>1.057531744026992</v>
+        <v>1.011826670222685</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034562200373295</v>
+        <v>1.042540964978587</v>
       </c>
       <c r="J14">
-        <v>1.046540404294084</v>
+        <v>1.019990858155311</v>
       </c>
       <c r="K14">
-        <v>1.051388454248721</v>
+        <v>1.021457690535742</v>
       </c>
       <c r="L14">
-        <v>1.051512549050839</v>
+        <v>1.021556572917786</v>
       </c>
       <c r="M14">
-        <v>1.061024453430077</v>
+        <v>1.026545627940603</v>
       </c>
       <c r="N14">
-        <v>1.048026611708044</v>
+        <v>1.021439362168479</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040105558309036</v>
+        <v>0.9907186288639706</v>
       </c>
       <c r="D15">
-        <v>1.047954966655396</v>
+        <v>1.007103998991734</v>
       </c>
       <c r="E15">
-        <v>1.048079149619224</v>
+        <v>1.007201261370117</v>
       </c>
       <c r="F15">
-        <v>1.05763557978494</v>
+        <v>1.012330111784627</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034574912934464</v>
+        <v>1.042650833931522</v>
       </c>
       <c r="J15">
-        <v>1.046607785646851</v>
+        <v>1.02032922654874</v>
       </c>
       <c r="K15">
-        <v>1.051462737413075</v>
+        <v>1.021821986220599</v>
       </c>
       <c r="L15">
-        <v>1.0515864737083</v>
+        <v>1.021917458174036</v>
       </c>
       <c r="M15">
-        <v>1.061108877624778</v>
+        <v>1.026952529792912</v>
       </c>
       <c r="N15">
-        <v>1.04809408875006</v>
+        <v>1.021778211083837</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040715524268071</v>
+        <v>0.9938999667883537</v>
       </c>
       <c r="D16">
-        <v>1.048501607385522</v>
+        <v>1.009764293555404</v>
       </c>
       <c r="E16">
-        <v>1.048623699681597</v>
+        <v>1.00984163389821</v>
       </c>
       <c r="F16">
-        <v>1.058240335960382</v>
+        <v>1.015236703016684</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034648377290744</v>
+        <v>1.043280466865177</v>
       </c>
       <c r="J16">
-        <v>1.046999921730454</v>
+        <v>1.022280147030642</v>
       </c>
       <c r="K16">
-        <v>1.05189514979967</v>
+        <v>1.023923294011478</v>
       </c>
       <c r="L16">
-        <v>1.052016818369736</v>
+        <v>1.023999276866575</v>
       </c>
       <c r="M16">
-        <v>1.06160041748439</v>
+        <v>1.029300311437086</v>
       </c>
       <c r="N16">
-        <v>1.048486781711881</v>
+        <v>1.023731902096598</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04109829363055</v>
+        <v>0.9958701316038852</v>
       </c>
       <c r="D17">
-        <v>1.048844757002942</v>
+        <v>1.011414171659201</v>
       </c>
       <c r="E17">
-        <v>1.048965554895923</v>
+        <v>1.011479351232965</v>
       </c>
       <c r="F17">
-        <v>1.058620023517924</v>
+        <v>1.01703960025615</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034693993892556</v>
+        <v>1.043666867605064</v>
       </c>
       <c r="J17">
-        <v>1.047245851335698</v>
+        <v>1.02348794490816</v>
       </c>
       <c r="K17">
-        <v>1.052166435880118</v>
+        <v>1.025224985775622</v>
       </c>
       <c r="L17">
-        <v>1.052286824101944</v>
+        <v>1.025289055675544</v>
       </c>
       <c r="M17">
-        <v>1.061908882686828</v>
+        <v>1.030755317224247</v>
       </c>
       <c r="N17">
-        <v>1.048733060565373</v>
+        <v>1.024941415185637</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041321611702072</v>
+        <v>0.9970103885908701</v>
       </c>
       <c r="D18">
-        <v>1.049045002344034</v>
+        <v>1.012369898560325</v>
       </c>
       <c r="E18">
-        <v>1.04916505136349</v>
+        <v>1.012428103223605</v>
       </c>
       <c r="F18">
-        <v>1.058841610965378</v>
+        <v>1.018084067088177</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034720433315938</v>
+        <v>1.043889215168088</v>
       </c>
       <c r="J18">
-        <v>1.047389280679076</v>
+        <v>1.024186817569444</v>
       </c>
       <c r="K18">
-        <v>1.052324688432343</v>
+        <v>1.025978473705094</v>
       </c>
       <c r="L18">
-        <v>1.052444335860228</v>
+        <v>1.026035705143912</v>
       </c>
       <c r="M18">
-        <v>1.062088853604218</v>
+        <v>1.031597780075569</v>
       </c>
       <c r="N18">
-        <v>1.04887669359487</v>
+        <v>1.025641280326263</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04139776672802</v>
+        <v>0.9973976988729023</v>
       </c>
       <c r="D19">
-        <v>1.049113296392988</v>
+        <v>1.012694670212552</v>
       </c>
       <c r="E19">
-        <v>1.049233091105378</v>
+        <v>1.01275051641778</v>
       </c>
       <c r="F19">
-        <v>1.0589171872336</v>
+        <v>1.018439011359483</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034729419970914</v>
+        <v>1.04396451986227</v>
       </c>
       <c r="J19">
-        <v>1.047438183427301</v>
+        <v>1.024424175267592</v>
       </c>
       <c r="K19">
-        <v>1.052378651141461</v>
+        <v>1.026234428771557</v>
       </c>
       <c r="L19">
-        <v>1.052498046997403</v>
+        <v>1.026289346947294</v>
       </c>
       <c r="M19">
-        <v>1.062150227209489</v>
+        <v>1.031883998274919</v>
       </c>
       <c r="N19">
-        <v>1.048925665790607</v>
+        <v>1.025878975099567</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041057220387189</v>
+        <v>0.99565967831785</v>
       </c>
       <c r="D20">
-        <v>1.048807930774059</v>
+        <v>1.011237843873909</v>
       </c>
       <c r="E20">
-        <v>1.048928866910132</v>
+        <v>1.011304315890254</v>
       </c>
       <c r="F20">
-        <v>1.058579273995808</v>
+        <v>1.016846908491412</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034689117033172</v>
+        <v>1.043625725292532</v>
       </c>
       <c r="J20">
-        <v>1.047219467192469</v>
+        <v>1.023358943485429</v>
       </c>
       <c r="K20">
-        <v>1.052137327791831</v>
+        <v>1.025085926250661</v>
       </c>
       <c r="L20">
-        <v>1.052257852761104</v>
+        <v>1.025151262852717</v>
       </c>
       <c r="M20">
-        <v>1.061875782277382</v>
+        <v>1.030599855495108</v>
       </c>
       <c r="N20">
-        <v>1.048706638953635</v>
+        <v>1.02481223056609</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039950721657914</v>
+        <v>0.9899027723065476</v>
       </c>
       <c r="D21">
-        <v>1.04781624144844</v>
+        <v>1.006422528260645</v>
       </c>
       <c r="E21">
-        <v>1.047940960530388</v>
+        <v>1.006524955163546</v>
       </c>
       <c r="F21">
-        <v>1.057482123537534</v>
+        <v>1.011585629993963</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034556115200099</v>
+        <v>1.04248827835377</v>
       </c>
       <c r="J21">
-        <v>1.046508199082608</v>
+        <v>1.019828805765925</v>
       </c>
       <c r="K21">
-        <v>1.051352952231269</v>
+        <v>1.021283236975741</v>
       </c>
       <c r="L21">
-        <v>1.051477218712884</v>
+        <v>1.021383755802607</v>
       </c>
       <c r="M21">
-        <v>1.060984106408235</v>
+        <v>1.026350783880149</v>
       </c>
       <c r="N21">
-        <v>1.047994360761474</v>
+        <v>1.021277079646111</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039255524676662</v>
+        <v>0.986197479751161</v>
       </c>
       <c r="D22">
-        <v>1.047193564231871</v>
+        <v>1.003331463565982</v>
       </c>
       <c r="E22">
-        <v>1.047320717089739</v>
+        <v>1.003457622806369</v>
       </c>
       <c r="F22">
-        <v>1.056793410388859</v>
+        <v>1.008209138939241</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03447098178193</v>
+        <v>1.041744731376675</v>
       </c>
       <c r="J22">
-        <v>1.046060847677795</v>
+        <v>1.017555664763474</v>
       </c>
       <c r="K22">
-        <v>1.050859934997094</v>
+        <v>1.018837211150329</v>
       </c>
       <c r="L22">
-        <v>1.050986608075908</v>
+        <v>1.018960893298167</v>
       </c>
       <c r="M22">
-        <v>1.060423917849645</v>
+        <v>1.023619706654895</v>
       </c>
       <c r="N22">
-        <v>1.047546374066354</v>
+        <v>1.019000710522705</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039624013829161</v>
+        <v>0.9881701244641321</v>
       </c>
       <c r="D23">
-        <v>1.04752357742842</v>
+        <v>1.004976307548888</v>
       </c>
       <c r="E23">
-        <v>1.047649434851925</v>
+        <v>1.005089776007111</v>
       </c>
       <c r="F23">
-        <v>1.057158404726424</v>
+        <v>1.01000579026249</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034516255575535</v>
+        <v>1.042141644248261</v>
       </c>
       <c r="J23">
-        <v>1.046298010928711</v>
+        <v>1.018765933035492</v>
       </c>
       <c r="K23">
-        <v>1.051121278129654</v>
+        <v>1.020139280953508</v>
       </c>
       <c r="L23">
-        <v>1.051246670291935</v>
+        <v>1.020250582378295</v>
       </c>
       <c r="M23">
-        <v>1.060720842002538</v>
+        <v>1.025073320855314</v>
       </c>
       <c r="N23">
-        <v>1.04778387411629</v>
+        <v>1.020212697514488</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041075779447415</v>
+        <v>0.9957548005666379</v>
       </c>
       <c r="D24">
-        <v>1.048824570677647</v>
+        <v>1.011317539225116</v>
       </c>
       <c r="E24">
-        <v>1.048945444328679</v>
+        <v>1.011383426877478</v>
       </c>
       <c r="F24">
-        <v>1.058597686573587</v>
+        <v>1.016933999603322</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034691321195043</v>
+        <v>1.043644325095769</v>
       </c>
       <c r="J24">
-        <v>1.04723138910442</v>
+        <v>1.023417250997462</v>
       </c>
       <c r="K24">
-        <v>1.052150480434714</v>
+        <v>1.025148779052578</v>
       </c>
       <c r="L24">
-        <v>1.052270943595129</v>
+        <v>1.025213542946559</v>
       </c>
       <c r="M24">
-        <v>1.061890738778209</v>
+        <v>1.030670121135964</v>
       </c>
       <c r="N24">
-        <v>1.048718577796068</v>
+        <v>1.024870620881478</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042762634215133</v>
+        <v>1.004209333861581</v>
       </c>
       <c r="D25">
-        <v>1.050337904358363</v>
+        <v>1.01841819691488</v>
       </c>
       <c r="E25">
-        <v>1.050453235049892</v>
+        <v>1.018433483431586</v>
       </c>
       <c r="F25">
-        <v>1.06027267891675</v>
+        <v>1.02469584165237</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034887884253527</v>
+        <v>1.045269560643273</v>
       </c>
       <c r="J25">
-        <v>1.048313843081121</v>
+        <v>1.028595862811972</v>
       </c>
       <c r="K25">
-        <v>1.053345435277081</v>
+        <v>1.030737167281809</v>
       </c>
       <c r="L25">
-        <v>1.053460414424799</v>
+        <v>1.030752227284407</v>
       </c>
       <c r="M25">
-        <v>1.063250232859562</v>
+        <v>1.036922511767356</v>
       </c>
       <c r="N25">
-        <v>1.049802568981574</v>
+        <v>1.03005658691876</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010698759239443</v>
+        <v>0.9797345253690283</v>
       </c>
       <c r="D2">
-        <v>1.023892058939393</v>
+        <v>0.9959712523225361</v>
       </c>
       <c r="E2">
-        <v>1.023870421312132</v>
+        <v>0.9887454105329043</v>
       </c>
       <c r="F2">
-        <v>1.0306828960357</v>
+        <v>1.007843219902965</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046475298863774</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.032564114166955</v>
+        <v>1.002538742718469</v>
       </c>
       <c r="K2">
-        <v>1.035028279341204</v>
+        <v>1.007487000819203</v>
       </c>
       <c r="L2">
-        <v>1.03500692578635</v>
+        <v>1.000363798872006</v>
       </c>
       <c r="M2">
-        <v>1.041730699379481</v>
+        <v>1.019194357051688</v>
       </c>
       <c r="N2">
-        <v>1.034030473645835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.004305951829355</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.023763237641217</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.016363386286796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015275103059754</v>
+        <v>0.9840139946855067</v>
       </c>
       <c r="D3">
-        <v>1.027764940947453</v>
+        <v>0.9991242914232296</v>
       </c>
       <c r="E3">
-        <v>1.02771835871757</v>
+        <v>0.9921535165679747</v>
       </c>
       <c r="F3">
-        <v>1.034921060846697</v>
+        <v>1.01111424230078</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047300524868086</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.035357841179368</v>
+        <v>1.004950148536145</v>
       </c>
       <c r="K3">
-        <v>1.038054474209239</v>
+        <v>1.009768389380352</v>
       </c>
       <c r="L3">
-        <v>1.038008448751547</v>
+        <v>1.002887788966017</v>
       </c>
       <c r="M3">
-        <v>1.045125797816733</v>
+        <v>1.021606862303251</v>
       </c>
       <c r="N3">
-        <v>1.036828168071047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.005187059463026</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.025672616835358</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.017973884241271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018177129974593</v>
+        <v>0.9867303412092967</v>
       </c>
       <c r="D4">
-        <v>1.030226470411324</v>
+        <v>1.001133010969903</v>
       </c>
       <c r="E4">
-        <v>1.030164572587666</v>
+        <v>0.9943227803539846</v>
       </c>
       <c r="F4">
-        <v>1.037615823208679</v>
+        <v>1.013197933411274</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047811936845632</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.037127021197644</v>
+        <v>1.006479686838712</v>
       </c>
       <c r="K4">
-        <v>1.039973278133018</v>
+        <v>1.01121778075533</v>
       </c>
       <c r="L4">
-        <v>1.039912074380844</v>
+        <v>1.004490210819399</v>
       </c>
       <c r="M4">
-        <v>1.047280504115773</v>
+        <v>1.023139638457944</v>
       </c>
       <c r="N4">
-        <v>1.038599860527877</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.005744813153247</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.026885730960992</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.0189997147421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019383471937799</v>
+        <v>0.987865574029143</v>
       </c>
       <c r="D5">
-        <v>1.031251003526374</v>
+        <v>1.001977399581052</v>
       </c>
       <c r="E5">
-        <v>1.031182859317378</v>
+        <v>0.9952313941613229</v>
       </c>
       <c r="F5">
-        <v>1.038737695671861</v>
+        <v>1.01406866603717</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048021627852642</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.037861832020865</v>
+        <v>1.007120880730404</v>
       </c>
       <c r="K5">
-        <v>1.040770814906839</v>
+        <v>1.01182801488633</v>
       </c>
       <c r="L5">
-        <v>1.040703413973184</v>
+        <v>1.005161660200907</v>
       </c>
       <c r="M5">
-        <v>1.048176574534358</v>
+        <v>1.023779790262826</v>
       </c>
       <c r="N5">
-        <v>1.039335714866751</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.005978757419643</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.027392377818634</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.019438602780858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019585234410644</v>
+        <v>0.9880621535884048</v>
       </c>
       <c r="D6">
-        <v>1.03142243354085</v>
+        <v>1.002127548702861</v>
       </c>
       <c r="E6">
-        <v>1.031353251664548</v>
+        <v>0.9953895691279031</v>
       </c>
       <c r="F6">
-        <v>1.038925428709881</v>
+        <v>1.014217309063172</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048056527395408</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.037984692794279</v>
+        <v>1.007234628291797</v>
       </c>
       <c r="K6">
-        <v>1.040904197756898</v>
+        <v>1.011938807821564</v>
       </c>
       <c r="L6">
-        <v>1.040835766941973</v>
+        <v>1.00528001072845</v>
       </c>
       <c r="M6">
-        <v>1.048326464988486</v>
+        <v>1.023889745446007</v>
       </c>
       <c r="N6">
-        <v>1.039458750116555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.006020745222916</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.027479401589448</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.019525939561831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018193302249667</v>
+        <v>0.986763636591985</v>
       </c>
       <c r="D7">
-        <v>1.030240200261294</v>
+        <v>1.001168047668795</v>
       </c>
       <c r="E7">
-        <v>1.030178218224327</v>
+        <v>0.9943514805383766</v>
       </c>
       <c r="F7">
-        <v>1.03763085646022</v>
+        <v>1.013217412729708</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047814759475123</v>
+        <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>1.037136874596425</v>
+        <v>1.006505881983607</v>
       </c>
       <c r="K7">
-        <v>1.03998397035066</v>
+        <v>1.011249399064023</v>
       </c>
       <c r="L7">
-        <v>1.039922683075016</v>
+        <v>1.004515535130698</v>
       </c>
       <c r="M7">
-        <v>1.047292515417974</v>
+        <v>1.023155941402603</v>
       </c>
       <c r="N7">
-        <v>1.038609727919614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.005755753938807</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.026898633898374</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.019042761530455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012257914916729</v>
+        <v>0.9812151808544072</v>
       </c>
       <c r="D8">
-        <v>1.02521034786373</v>
+        <v>0.9970735007013243</v>
       </c>
       <c r="E8">
-        <v>1.025180105950407</v>
+        <v>0.9899260502146262</v>
       </c>
       <c r="F8">
-        <v>1.032125305083111</v>
+        <v>1.008965685765291</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046758919006608</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.033516419465095</v>
+        <v>1.003382687100427</v>
       </c>
       <c r="K8">
-        <v>1.036059322874221</v>
+        <v>1.008293259750884</v>
       </c>
       <c r="L8">
-        <v>1.036029465834443</v>
+        <v>1.001244231113636</v>
       </c>
       <c r="M8">
-        <v>1.042887015256905</v>
+        <v>1.02002556540785</v>
       </c>
       <c r="N8">
-        <v>1.034984131326726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.004616395429116</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.024421098759235</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.016957115857487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001322218777942</v>
+        <v>0.9709833553648355</v>
       </c>
       <c r="D9">
-        <v>1.015989545923291</v>
+        <v>0.9895667706475824</v>
       </c>
       <c r="E9">
-        <v>1.01602180755965</v>
+        <v>0.9818116778899934</v>
       </c>
       <c r="F9">
-        <v>1.02204051863579</v>
+        <v>1.001196787053497</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044721025705379</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.026828372334928</v>
+        <v>0.9976040841945836</v>
       </c>
       <c r="K9">
-        <v>1.028828423276776</v>
+        <v>1.002831418579685</v>
       </c>
       <c r="L9">
-        <v>1.028860182360362</v>
+        <v>0.9952069058571702</v>
       </c>
       <c r="M9">
-        <v>1.034785845826497</v>
+        <v>1.014270477019168</v>
       </c>
       <c r="N9">
-        <v>1.028286586402504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.002497473272082</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.019866212150006</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.013091701795881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.993676096316195</v>
+        <v>0.9639841381515833</v>
       </c>
       <c r="D10">
-        <v>1.009576933297886</v>
+        <v>0.9844932105751165</v>
       </c>
       <c r="E10">
-        <v>1.009655664122457</v>
+        <v>0.9763128881125969</v>
       </c>
       <c r="F10">
-        <v>1.015031979319459</v>
+        <v>0.9961732552721952</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04323638596783</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.022142884636337</v>
+        <v>0.9937033442285402</v>
       </c>
       <c r="K10">
-        <v>1.023775399700827</v>
+        <v>0.9991482053201755</v>
       </c>
       <c r="L10">
-        <v>1.023852743903759</v>
+        <v>0.991123409069088</v>
       </c>
       <c r="M10">
-        <v>1.029135029114419</v>
+        <v>1.01061194823638</v>
       </c>
       <c r="N10">
-        <v>1.023594444773948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.001068739148735</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.017023452838951</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.010504636710411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9902723855086465</v>
+        <v>0.9619649627402458</v>
       </c>
       <c r="D11">
-        <v>1.006731221188685</v>
+        <v>0.983172666780417</v>
       </c>
       <c r="E11">
-        <v>1.006831305601665</v>
+        <v>0.9748592076451409</v>
       </c>
       <c r="F11">
-        <v>1.011922861749736</v>
+        <v>0.9966956978885717</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042561975571645</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.020055519710808</v>
+        <v>0.9930103511960379</v>
       </c>
       <c r="K11">
-        <v>1.021527303248089</v>
+        <v>0.9984190554902949</v>
       </c>
       <c r="L11">
-        <v>1.02162553322345</v>
+        <v>0.9902713440372294</v>
       </c>
       <c r="M11">
-        <v>1.026623379423838</v>
+        <v>1.011680198701474</v>
       </c>
       <c r="N11">
-        <v>1.021504115550801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.000869963676945</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.01831547848363</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.010023044980772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9889933579068925</v>
+        <v>0.9615868633820904</v>
       </c>
       <c r="D12">
-        <v>1.0056632764124</v>
+        <v>0.9829921826780906</v>
       </c>
       <c r="E12">
-        <v>1.005771486298101</v>
+        <v>0.9746594839410128</v>
       </c>
       <c r="F12">
-        <v>1.010756212249041</v>
+        <v>0.9978091218460164</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042306577154696</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.01927095544911</v>
+        <v>0.9931108527998265</v>
       </c>
       <c r="K12">
-        <v>1.020682775371656</v>
+        <v>0.9984526442492111</v>
       </c>
       <c r="L12">
-        <v>1.020788942811916</v>
+        <v>0.9902888219737767</v>
       </c>
       <c r="M12">
-        <v>1.02568020134101</v>
+        <v>1.012978416337011</v>
       </c>
       <c r="N12">
-        <v>1.020718437117861</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.000955054503946</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.019675345167188</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.010046794885528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9892683937573088</v>
+        <v>0.9624630716207109</v>
       </c>
       <c r="D13">
-        <v>1.005892857658874</v>
+        <v>0.9836987829445282</v>
       </c>
       <c r="E13">
-        <v>1.005999315686298</v>
+        <v>0.9754242882858477</v>
       </c>
       <c r="F13">
-        <v>1.011007006078471</v>
+        <v>0.9994802104963436</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042361584931218</v>
+        <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>1.019439671819893</v>
+        <v>0.9938468374268534</v>
       </c>
       <c r="K13">
-        <v>1.020864366317252</v>
+        <v>0.9990999879591776</v>
       </c>
       <c r="L13">
-        <v>1.020968822896949</v>
+        <v>0.9909922924369757</v>
       </c>
       <c r="M13">
-        <v>1.025882988051342</v>
+        <v>1.014573308223274</v>
       </c>
       <c r="N13">
-        <v>1.020887393085242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.001272628016388</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.021217734621105</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.01050194018759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9901669660544528</v>
+        <v>0.9636348809748613</v>
       </c>
       <c r="D14">
-        <v>1.006643170645154</v>
+        <v>0.9845895026028404</v>
       </c>
       <c r="E14">
-        <v>1.006743922706157</v>
+        <v>0.9763884897223366</v>
       </c>
       <c r="F14">
-        <v>1.011826670222685</v>
+        <v>1.000874502389608</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042540964978587</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>1.019990858155311</v>
+        <v>0.994640790480868</v>
       </c>
       <c r="K14">
-        <v>1.021457690535742</v>
+        <v>0.9998253690376288</v>
       </c>
       <c r="L14">
-        <v>1.021556572917786</v>
+        <v>0.9917874318211518</v>
       </c>
       <c r="M14">
-        <v>1.026545627940603</v>
+        <v>1.015796892936675</v>
       </c>
       <c r="N14">
-        <v>1.021439362168479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.001597393830659</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.02236068004076</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.01101631466349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9907186288639706</v>
+        <v>0.9642083887409796</v>
       </c>
       <c r="D15">
-        <v>1.007103998991734</v>
+        <v>0.9850154928753255</v>
       </c>
       <c r="E15">
-        <v>1.007201261370117</v>
+        <v>0.9768472238886727</v>
       </c>
       <c r="F15">
-        <v>1.012330111784627</v>
+        <v>1.001387353476365</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042650833931522</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.02032922654874</v>
+        <v>0.9949892197063197</v>
       </c>
       <c r="K15">
-        <v>1.021821986220599</v>
+        <v>1.000152103652584</v>
       </c>
       <c r="L15">
-        <v>1.021917458174036</v>
+        <v>0.9921449465192818</v>
       </c>
       <c r="M15">
-        <v>1.026952529792912</v>
+        <v>1.016211371290401</v>
       </c>
       <c r="N15">
-        <v>1.021778211083837</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.001733108403453</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.022726277210799</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.011253408840642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9938999667883537</v>
+        <v>0.9669787880126358</v>
       </c>
       <c r="D16">
-        <v>1.009764293555404</v>
+        <v>0.9870057369056999</v>
       </c>
       <c r="E16">
-        <v>1.00984163389821</v>
+        <v>0.9790003097518613</v>
       </c>
       <c r="F16">
-        <v>1.015236703016684</v>
+        <v>1.003226207098255</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043280466865177</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.022280147030642</v>
+        <v>0.9964854829271793</v>
       </c>
       <c r="K16">
-        <v>1.023923294011478</v>
+        <v>1.001576257468045</v>
       </c>
       <c r="L16">
-        <v>1.023999276866575</v>
+        <v>0.9937215341607721</v>
       </c>
       <c r="M16">
-        <v>1.029300311437086</v>
+        <v>1.017500947419642</v>
       </c>
       <c r="N16">
-        <v>1.023731902096598</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.002271935551063</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.023706342984382</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.012263666807245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9958701316038852</v>
+        <v>0.9685014901195151</v>
       </c>
       <c r="D17">
-        <v>1.011414171659201</v>
+        <v>0.9880769644658836</v>
       </c>
       <c r="E17">
-        <v>1.011479351232965</v>
+        <v>0.9801581802010506</v>
       </c>
       <c r="F17">
-        <v>1.01703960025615</v>
+        <v>1.00391387423592</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043666867605064</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.02348794490816</v>
+        <v>0.997226340844462</v>
       </c>
       <c r="K17">
-        <v>1.025224985775622</v>
+        <v>1.002297327999434</v>
       </c>
       <c r="L17">
-        <v>1.025289055675544</v>
+        <v>0.994523288627032</v>
       </c>
       <c r="M17">
-        <v>1.030755317224247</v>
+        <v>1.017853625314488</v>
       </c>
       <c r="N17">
-        <v>1.024941415185637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.002517977797085</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.023854350634807</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.012776191930041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9970103885908701</v>
+        <v>0.96904480712233</v>
       </c>
       <c r="D18">
-        <v>1.012369898560325</v>
+        <v>0.9884064748720756</v>
       </c>
       <c r="E18">
-        <v>1.012428103223605</v>
+        <v>0.9805208071159655</v>
       </c>
       <c r="F18">
-        <v>1.018084067088177</v>
+        <v>1.003497076651247</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043889215168088</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.024186817569444</v>
+        <v>0.9973305207566135</v>
       </c>
       <c r="K18">
-        <v>1.025978473705094</v>
+        <v>1.002428374134934</v>
       </c>
       <c r="L18">
-        <v>1.026035705143912</v>
+        <v>0.9946844670123457</v>
       </c>
       <c r="M18">
-        <v>1.031597780075569</v>
+        <v>1.017255717797309</v>
       </c>
       <c r="N18">
-        <v>1.025641280326263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.002514743440214</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.023140296488017</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.012856837883413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9973976988729023</v>
+        <v>0.9687067724711722</v>
       </c>
       <c r="D19">
-        <v>1.012694670212552</v>
+        <v>0.9880832810765755</v>
       </c>
       <c r="E19">
-        <v>1.01275051641778</v>
+        <v>0.9801711380845185</v>
       </c>
       <c r="F19">
-        <v>1.018439011359483</v>
+        <v>1.001983887091837</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04396451986227</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.024424175267592</v>
+        <v>0.9968645603474662</v>
       </c>
       <c r="K19">
-        <v>1.026234428771557</v>
+        <v>1.002045265477591</v>
       </c>
       <c r="L19">
-        <v>1.026289346947294</v>
+        <v>0.9942747174570297</v>
       </c>
       <c r="M19">
-        <v>1.031883998274919</v>
+        <v>1.015704103622838</v>
       </c>
       <c r="N19">
-        <v>1.025878975099567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.002297218551176</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.021581793428586</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.01259255582165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.99565967831785</v>
+        <v>0.9658549433933278</v>
       </c>
       <c r="D20">
-        <v>1.011237843873909</v>
+        <v>0.9858732934321667</v>
       </c>
       <c r="E20">
-        <v>1.011304315890254</v>
+        <v>0.9777870212400008</v>
       </c>
       <c r="F20">
-        <v>1.016846908491412</v>
+        <v>0.9975093394073393</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043625725292532</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.023358943485429</v>
+        <v>0.9947686547486499</v>
       </c>
       <c r="K20">
-        <v>1.025085926250661</v>
+        <v>1.000169177031679</v>
       </c>
       <c r="L20">
-        <v>1.025151262852717</v>
+        <v>0.9922320378586228</v>
       </c>
       <c r="M20">
-        <v>1.030599855495108</v>
+        <v>1.011596125917946</v>
       </c>
       <c r="N20">
-        <v>1.02481223056609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.001463893658632</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.017791518064686</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.011270069600957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9899027723065476</v>
+        <v>0.9603777495874993</v>
       </c>
       <c r="D21">
-        <v>1.006422528260645</v>
+        <v>0.9818897976443759</v>
       </c>
       <c r="E21">
-        <v>1.006524955163546</v>
+        <v>0.9734742107913201</v>
       </c>
       <c r="F21">
-        <v>1.011585629993963</v>
+        <v>0.993208724883005</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04248827835377</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.019828805765925</v>
+        <v>0.9916308279589677</v>
       </c>
       <c r="K21">
-        <v>1.021283236975741</v>
+        <v>0.9972225927046595</v>
       </c>
       <c r="L21">
-        <v>1.021383755802607</v>
+        <v>0.9889761726853938</v>
       </c>
       <c r="M21">
-        <v>1.026350783880149</v>
+        <v>1.008319912524252</v>
       </c>
       <c r="N21">
-        <v>1.021277079646111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.000303242459984</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.015156582563148</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.009189942734844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.986197479751161</v>
+        <v>0.9569010144261655</v>
       </c>
       <c r="D22">
-        <v>1.003331463565982</v>
+        <v>0.9793683707363438</v>
       </c>
       <c r="E22">
-        <v>1.003457622806369</v>
+        <v>0.9707500615264052</v>
       </c>
       <c r="F22">
-        <v>1.008209138939241</v>
+        <v>0.9906204866070585</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041744731376675</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.017555664763474</v>
+        <v>0.9896567486392266</v>
       </c>
       <c r="K22">
-        <v>1.018837211150329</v>
+        <v>0.9953599314540863</v>
       </c>
       <c r="L22">
-        <v>1.018960893298167</v>
+        <v>0.9869241211894297</v>
       </c>
       <c r="M22">
-        <v>1.023619706654895</v>
+        <v>1.006380071900643</v>
       </c>
       <c r="N22">
-        <v>1.019000710522705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9995731954817213</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.013621270392276</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.007858887563964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9881701244641321</v>
+        <v>0.95873248685307</v>
       </c>
       <c r="D23">
-        <v>1.004976307548888</v>
+        <v>0.9806860164768865</v>
       </c>
       <c r="E23">
-        <v>1.005089776007111</v>
+        <v>0.9721816816602895</v>
       </c>
       <c r="F23">
-        <v>1.01000579026249</v>
+        <v>0.9919887829841082</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042141644248261</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.018765933035492</v>
+        <v>0.9906892442360583</v>
       </c>
       <c r="K23">
-        <v>1.020139280953508</v>
+        <v>0.9963281083612673</v>
       </c>
       <c r="L23">
-        <v>1.020250582378295</v>
+        <v>0.9879989989494929</v>
       </c>
       <c r="M23">
-        <v>1.025073320855314</v>
+        <v>1.007404097087657</v>
       </c>
       <c r="N23">
-        <v>1.020212697514488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9999534706321543</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.014431748935974</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.008533491657998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9957548005666379</v>
+        <v>0.9658117407381454</v>
       </c>
       <c r="D24">
-        <v>1.011317539225116</v>
+        <v>0.9858152209375902</v>
       </c>
       <c r="E24">
-        <v>1.011383426877478</v>
+        <v>0.9777379589110206</v>
       </c>
       <c r="F24">
-        <v>1.016933999603322</v>
+        <v>0.9972906229636875</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043644325095769</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.023417250997462</v>
+        <v>0.994692464167741</v>
       </c>
       <c r="K24">
-        <v>1.025148779052578</v>
+        <v>1.000096102083897</v>
       </c>
       <c r="L24">
-        <v>1.025213542946559</v>
+        <v>0.9921676349094878</v>
       </c>
       <c r="M24">
-        <v>1.030670121135964</v>
+        <v>1.011365485949249</v>
       </c>
       <c r="N24">
-        <v>1.024870620881478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.001428934384279</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.0175670341476</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.011190058076926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004209333861581</v>
+        <v>0.9737127111603909</v>
       </c>
       <c r="D25">
-        <v>1.01841819691488</v>
+        <v>0.9915781597188736</v>
       </c>
       <c r="E25">
-        <v>1.018433483431586</v>
+        <v>0.9839737772988848</v>
       </c>
       <c r="F25">
-        <v>1.02469584165237</v>
+        <v>1.003251627142461</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045269560643273</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.028595862811972</v>
+        <v>0.9991583300367861</v>
       </c>
       <c r="K25">
-        <v>1.030737167281809</v>
+        <v>1.004308636104976</v>
       </c>
       <c r="L25">
-        <v>1.030752227284407</v>
+        <v>0.9968260810154809</v>
       </c>
       <c r="M25">
-        <v>1.036922511767356</v>
+        <v>1.015799674631198</v>
       </c>
       <c r="N25">
-        <v>1.03005658691876</v>
+        <v>1.00307082798304</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.021076504428746</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.014165766466699</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9797345253690283</v>
+        <v>0.9823884839730158</v>
       </c>
       <c r="D2">
-        <v>0.9959712523225361</v>
+        <v>0.9991875377650966</v>
       </c>
       <c r="E2">
-        <v>0.9887454105329043</v>
+        <v>0.9910785531610613</v>
       </c>
       <c r="F2">
-        <v>1.007843219902965</v>
+        <v>1.008992912163676</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.04522409831064</v>
       </c>
       <c r="J2">
-        <v>1.002538742718469</v>
+        <v>1.005109022387187</v>
       </c>
       <c r="K2">
-        <v>1.007487000819203</v>
+        <v>1.010658203093632</v>
       </c>
       <c r="L2">
-        <v>1.000363798872006</v>
+        <v>1.002663593256305</v>
       </c>
       <c r="M2">
-        <v>1.019194357051688</v>
+        <v>1.020328367183242</v>
       </c>
       <c r="N2">
-        <v>1.004305951829355</v>
+        <v>1.008250800329242</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.023763237641217</v>
+        <v>1.024660751526645</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.016363386286796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.018614865779751</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.014743103628773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9840139946855067</v>
+        <v>0.9863754875060878</v>
       </c>
       <c r="D3">
-        <v>0.9991242914232296</v>
+        <v>1.001970393960595</v>
       </c>
       <c r="E3">
-        <v>0.9921535165679747</v>
+        <v>0.9942298025493603</v>
       </c>
       <c r="F3">
-        <v>1.01111424230078</v>
+        <v>1.012135896326294</v>
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1.02</v>
       </c>
       <c r="I3">
         <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.004950148536145</v>
+        <v>1.007244589450021</v>
       </c>
       <c r="K3">
-        <v>1.009768389380352</v>
+        <v>1.012578125158019</v>
       </c>
       <c r="L3">
-        <v>1.002887788966017</v>
+        <v>1.004937050449179</v>
       </c>
       <c r="M3">
-        <v>1.021606862303251</v>
+        <v>1.022615815715007</v>
       </c>
       <c r="N3">
-        <v>1.005187059463026</v>
+        <v>1.008868491203646</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.025672616835358</v>
+        <v>1.026471152226817</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.017973884241271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.019969470227112</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.015192047313977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9867303412092967</v>
+        <v>0.9889092352509458</v>
       </c>
       <c r="D4">
-        <v>1.001133010969903</v>
+        <v>1.003745863608348</v>
       </c>
       <c r="E4">
-        <v>0.9943227803539846</v>
+        <v>0.9962384768747027</v>
       </c>
       <c r="F4">
-        <v>1.013197933411274</v>
+        <v>1.014139797726917</v>
       </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1.02</v>
       </c>
       <c r="I4">
         <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.006479686838712</v>
+        <v>1.008600962658567</v>
       </c>
       <c r="K4">
-        <v>1.01121778075533</v>
+        <v>1.013799288619449</v>
       </c>
       <c r="L4">
-        <v>1.004490210819399</v>
+        <v>1.006382513178049</v>
       </c>
       <c r="M4">
-        <v>1.023139638457944</v>
+        <v>1.024070511404724</v>
       </c>
       <c r="N4">
-        <v>1.005744813153247</v>
+        <v>1.009260143717012</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.026885730960992</v>
+        <v>1.027622468357868</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.0189997147421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.020833985268536</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.015474771416677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.987865574029143</v>
+        <v>0.9899685996985012</v>
       </c>
       <c r="D5">
-        <v>1.001977399581052</v>
+        <v>1.004492948738942</v>
       </c>
       <c r="E5">
-        <v>0.9952313941613229</v>
+        <v>0.9970803068915831</v>
       </c>
       <c r="F5">
-        <v>1.01406866603717</v>
+        <v>1.01497741589607</v>
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1.02</v>
       </c>
       <c r="I5">
         <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.007120880730404</v>
+        <v>1.009169980977911</v>
       </c>
       <c r="K5">
-        <v>1.01182801488633</v>
+        <v>1.014314201356305</v>
       </c>
       <c r="L5">
-        <v>1.005161660200907</v>
+        <v>1.006988609808094</v>
       </c>
       <c r="M5">
-        <v>1.023779790262826</v>
+        <v>1.024678221892009</v>
       </c>
       <c r="N5">
-        <v>1.005978757419643</v>
+        <v>1.009424594201629</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.027392377818634</v>
+        <v>1.028103439093317</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.019438602780858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.021206167983643</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.015593992568081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9880621535884048</v>
+        <v>0.990151773103384</v>
       </c>
       <c r="D6">
-        <v>1.002127548702861</v>
+        <v>1.004626005932379</v>
       </c>
       <c r="E6">
-        <v>0.9953895691279031</v>
+        <v>0.9972266594215531</v>
       </c>
       <c r="F6">
-        <v>1.014217309063172</v>
+        <v>1.015120212805678</v>
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1.02</v>
       </c>
       <c r="I6">
         <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.007234628291797</v>
+        <v>1.009270946241629</v>
       </c>
       <c r="K6">
-        <v>1.011938807821564</v>
+        <v>1.014408237654108</v>
       </c>
       <c r="L6">
-        <v>1.00528001072845</v>
+        <v>1.007095380774778</v>
       </c>
       <c r="M6">
-        <v>1.023889745446007</v>
+        <v>1.024782444985377</v>
       </c>
       <c r="N6">
-        <v>1.006020745222916</v>
+        <v>1.009454146065132</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.027479401589448</v>
+        <v>1.028185926130156</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.019525939561831</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.021282514200762</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.015616571347089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.986763636591985</v>
+        <v>0.9889481209339792</v>
       </c>
       <c r="D7">
-        <v>1.001168047668795</v>
+        <v>1.003784352325834</v>
       </c>
       <c r="E7">
-        <v>0.9943514805383766</v>
+        <v>0.9962723982483144</v>
       </c>
       <c r="F7">
-        <v>1.013217412729708</v>
+        <v>1.014161689067729</v>
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1.02</v>
       </c>
       <c r="I7">
         <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>1.006505881983607</v>
+        <v>1.008632627230228</v>
       </c>
       <c r="K7">
-        <v>1.011249399064023</v>
+        <v>1.013834330934026</v>
       </c>
       <c r="L7">
-        <v>1.004515535130698</v>
+        <v>1.006413004648868</v>
       </c>
       <c r="M7">
-        <v>1.023155941402603</v>
+        <v>1.024089202470511</v>
       </c>
       <c r="N7">
-        <v>1.005755753938807</v>
+        <v>1.009296613050291</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.026898633898374</v>
+        <v>1.027637261353699</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.019042761530455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.020881428703923</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.015485967710952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9812151808544072</v>
+        <v>0.9837929680055006</v>
       </c>
       <c r="D8">
-        <v>0.9970735007013243</v>
+        <v>1.000182182362886</v>
       </c>
       <c r="E8">
-        <v>0.9899260502146262</v>
+        <v>0.9921935144155329</v>
       </c>
       <c r="F8">
-        <v>1.008965685765291</v>
+        <v>1.010081883189055</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1.02</v>
       </c>
       <c r="I8">
         <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.003382687100427</v>
+        <v>1.005881980152066</v>
       </c>
       <c r="K8">
-        <v>1.008293259750884</v>
+        <v>1.011359686437836</v>
       </c>
       <c r="L8">
-        <v>1.001244231113636</v>
+        <v>1.003480278264693</v>
       </c>
       <c r="M8">
-        <v>1.02002556540785</v>
+        <v>1.021126999028595</v>
       </c>
       <c r="N8">
-        <v>1.004616395429116</v>
+        <v>1.008555907029285</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.024421098759235</v>
+        <v>1.025292829092929</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.016957115857487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.01913673479347</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.0149131459857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9709833553648355</v>
+        <v>0.9742847621136241</v>
       </c>
       <c r="D9">
-        <v>0.9895667706475824</v>
+        <v>0.9935757469497285</v>
       </c>
       <c r="E9">
-        <v>0.9818116778899934</v>
+        <v>0.9847132908334517</v>
       </c>
       <c r="F9">
-        <v>1.001196787053497</v>
+        <v>1.002630730415504</v>
       </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1.02</v>
       </c>
       <c r="I9">
         <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>0.9976040841945836</v>
+        <v>1.000779455405816</v>
       </c>
       <c r="K9">
-        <v>1.002831418579685</v>
+        <v>1.006773920247768</v>
       </c>
       <c r="L9">
-        <v>0.9952069058571702</v>
+        <v>0.9980593508632111</v>
       </c>
       <c r="M9">
-        <v>1.014270477019168</v>
+        <v>1.015681269563238</v>
       </c>
       <c r="N9">
-        <v>1.002497473272082</v>
+        <v>1.007085392106338</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.019866212150006</v>
+        <v>1.02098279213221</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.013091701795881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.015890575990205</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.013823103574618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9639841381515833</v>
+        <v>0.9678333182620704</v>
       </c>
       <c r="D10">
-        <v>0.9844932105751165</v>
+        <v>0.9891547447588427</v>
       </c>
       <c r="E10">
-        <v>0.9763128881125969</v>
+        <v>0.9796940091670311</v>
       </c>
       <c r="F10">
-        <v>0.9961732552721952</v>
+        <v>0.9978468109366397</v>
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1.02</v>
       </c>
       <c r="I10">
         <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>0.9937033442285402</v>
+        <v>0.9973839640893853</v>
       </c>
       <c r="K10">
-        <v>0.9991482053201755</v>
+        <v>1.003722614008528</v>
       </c>
       <c r="L10">
-        <v>0.991123409069088</v>
+        <v>0.9944398355447293</v>
       </c>
       <c r="M10">
-        <v>1.01061194823638</v>
+        <v>1.012255051009546</v>
       </c>
       <c r="N10">
-        <v>1.001068739148735</v>
+        <v>1.006222041845418</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.017023452838951</v>
+        <v>1.018323816155945</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.010504636710411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.013752020234638</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.01309523983599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9619649627402458</v>
+        <v>0.9659860162034833</v>
       </c>
       <c r="D11">
-        <v>0.983172666780417</v>
+        <v>0.9880215204034084</v>
       </c>
       <c r="E11">
-        <v>0.9748592076451409</v>
+        <v>0.9783895740043383</v>
       </c>
       <c r="F11">
-        <v>0.9966956978885717</v>
+        <v>0.9984299339606933</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1.02</v>
       </c>
       <c r="I11">
         <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>0.9930103511960379</v>
+        <v>0.9968456227312779</v>
       </c>
       <c r="K11">
-        <v>0.9984190554902949</v>
+        <v>1.003172924843485</v>
       </c>
       <c r="L11">
-        <v>0.9902713440372294</v>
+        <v>0.9937308719847652</v>
       </c>
       <c r="M11">
-        <v>1.011680198701474</v>
+        <v>1.013381520292189</v>
       </c>
       <c r="N11">
-        <v>1.000869963676945</v>
+        <v>1.006339524669074</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.01831547848363</v>
+        <v>1.01966120555299</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.010023044980772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.013400471802577</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.013027996270545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9615868633820904</v>
+        <v>0.9656252241682781</v>
       </c>
       <c r="D12">
-        <v>0.9829921826780906</v>
+        <v>0.987858141021019</v>
       </c>
       <c r="E12">
-        <v>0.9746594839410128</v>
+        <v>0.9782025734663322</v>
       </c>
       <c r="F12">
-        <v>0.9978091218460164</v>
+        <v>0.9995405523467409</v>
       </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1.02</v>
       </c>
       <c r="I12">
         <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>0.9931108527998265</v>
+        <v>0.9969591582562757</v>
       </c>
       <c r="K12">
-        <v>0.9984526442492111</v>
+        <v>1.003221716405664</v>
       </c>
       <c r="L12">
-        <v>0.9902888219737767</v>
+        <v>0.9937596414397906</v>
       </c>
       <c r="M12">
-        <v>1.012978416337011</v>
+        <v>1.014676559945113</v>
       </c>
       <c r="N12">
-        <v>1.000955054503946</v>
+        <v>1.00651047747805</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.019675345167188</v>
+        <v>1.021018085554144</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.010046794885528</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.013434970201582</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.013086991124536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9624630716207109</v>
+        <v>0.9663864872710944</v>
       </c>
       <c r="D13">
-        <v>0.9836987829445282</v>
+        <v>0.9884396385770613</v>
       </c>
       <c r="E13">
-        <v>0.9754242882858477</v>
+        <v>0.9788625826403545</v>
       </c>
       <c r="F13">
-        <v>0.9994802104963436</v>
+        <v>1.001154466115655</v>
       </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1.02</v>
       </c>
       <c r="I13">
         <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>0.9938468374268534</v>
+        <v>0.9975867384887733</v>
       </c>
       <c r="K13">
-        <v>0.9990999879591776</v>
+        <v>1.003746928460558</v>
       </c>
       <c r="L13">
-        <v>0.9909922924369757</v>
+        <v>0.9943608259434513</v>
       </c>
       <c r="M13">
-        <v>1.014573308223274</v>
+        <v>1.016215622055094</v>
       </c>
       <c r="N13">
-        <v>1.001272628016388</v>
+        <v>1.006702105431149</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.021217734621105</v>
+        <v>1.022515993659974</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.01050194018759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.013803510106525</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.013252330554333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9636348809748613</v>
+        <v>0.967420195053456</v>
       </c>
       <c r="D14">
-        <v>0.9845895026028404</v>
+        <v>0.9891806550840953</v>
       </c>
       <c r="E14">
-        <v>0.9763884897223366</v>
+        <v>0.9797023250728647</v>
       </c>
       <c r="F14">
-        <v>1.000874502389608</v>
+        <v>1.002485547321335</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1.02</v>
       </c>
       <c r="I14">
         <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>0.994640790480868</v>
+        <v>0.9982517696300128</v>
       </c>
       <c r="K14">
-        <v>0.9998253690376288</v>
+        <v>1.004326774997341</v>
       </c>
       <c r="L14">
-        <v>0.9917874318211518</v>
+        <v>0.9950349399517939</v>
       </c>
       <c r="M14">
-        <v>1.015796892936675</v>
+        <v>1.017377649140891</v>
       </c>
       <c r="N14">
-        <v>1.001597393830659</v>
+        <v>1.006845131852536</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.02236068004076</v>
+        <v>1.023610105435823</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.01101631466349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.014215103016351</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.013415713107018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9642083887409796</v>
+        <v>0.9679311341951078</v>
       </c>
       <c r="D15">
-        <v>0.9850154928753255</v>
+        <v>0.9895383798229409</v>
       </c>
       <c r="E15">
-        <v>0.9768472238886727</v>
+        <v>0.9801051762786906</v>
       </c>
       <c r="F15">
-        <v>1.001387353476365</v>
+        <v>1.00297091487905</v>
       </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1.02</v>
       </c>
       <c r="I15">
         <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>0.9949892197063197</v>
+        <v>0.9985420789997449</v>
       </c>
       <c r="K15">
-        <v>1.000152103652584</v>
+        <v>1.004587279234295</v>
       </c>
       <c r="L15">
-        <v>0.9921449465192818</v>
+        <v>0.9953382157779185</v>
       </c>
       <c r="M15">
-        <v>1.016211371290401</v>
+        <v>1.01776540338177</v>
       </c>
       <c r="N15">
-        <v>1.001733108403453</v>
+        <v>1.006892068475881</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.022726277210799</v>
+        <v>1.023954547237733</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.011253408840642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.014405920549029</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.013483438432821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9669787880126358</v>
+        <v>0.9704360768743933</v>
       </c>
       <c r="D16">
-        <v>0.9870057369056999</v>
+        <v>0.9912322364750944</v>
       </c>
       <c r="E16">
-        <v>0.9790003097518613</v>
+        <v>0.9820243138565498</v>
       </c>
       <c r="F16">
-        <v>1.003226207098255</v>
+        <v>1.004697465984969</v>
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1.02</v>
       </c>
       <c r="I16">
         <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>0.9964854829271793</v>
+        <v>0.999793104720846</v>
       </c>
       <c r="K16">
-        <v>1.001576257468045</v>
+        <v>1.005724471646207</v>
       </c>
       <c r="L16">
-        <v>0.9937215341607721</v>
+        <v>0.9966882334164282</v>
       </c>
       <c r="M16">
-        <v>1.017500947419642</v>
+        <v>1.018945991017379</v>
       </c>
       <c r="N16">
-        <v>1.002271935551063</v>
+        <v>1.007036476934266</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.023706342984382</v>
+        <v>1.024848504468801</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.012263666807245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.015213554514162</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.013744351038287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9685014901195151</v>
+        <v>0.9718361879677149</v>
       </c>
       <c r="D17">
-        <v>0.9880769644658836</v>
+        <v>0.9921610043459068</v>
       </c>
       <c r="E17">
-        <v>0.9801581802010506</v>
+        <v>0.98307582436239</v>
       </c>
       <c r="F17">
-        <v>1.00391387423592</v>
+        <v>1.005335363426308</v>
       </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1.02</v>
       </c>
       <c r="I17">
         <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>0.997226340844462</v>
+        <v>1.000421402755853</v>
       </c>
       <c r="K17">
-        <v>1.002297327999434</v>
+        <v>1.006307889925972</v>
       </c>
       <c r="L17">
-        <v>0.994523288627032</v>
+        <v>0.9973872487890342</v>
       </c>
       <c r="M17">
-        <v>1.017853625314488</v>
+        <v>1.019250486660431</v>
       </c>
       <c r="N17">
-        <v>1.002517977797085</v>
+        <v>1.007104552062658</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.023854350634807</v>
+        <v>1.024958541121585</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.012776191930041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.015628985444034</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.013862824471073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.96904480712233</v>
+        <v>0.9723597176911773</v>
       </c>
       <c r="D18">
-        <v>0.9884064748720756</v>
+        <v>0.9924627751714775</v>
       </c>
       <c r="E18">
-        <v>0.9805208071159655</v>
+        <v>0.9834237416589586</v>
       </c>
       <c r="F18">
-        <v>1.003497076651247</v>
+        <v>1.004915076544074</v>
       </c>
       <c r="G18">
         <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1.02</v>
       </c>
       <c r="I18">
         <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>0.9973305207566135</v>
+        <v>1.000509203392735</v>
       </c>
       <c r="K18">
-        <v>1.002428374134934</v>
+        <v>1.00641289173239</v>
       </c>
       <c r="L18">
-        <v>0.9946844670123457</v>
+        <v>0.9975348718150693</v>
       </c>
       <c r="M18">
-        <v>1.017255717797309</v>
+        <v>1.018649505293114</v>
       </c>
       <c r="N18">
-        <v>1.002514743440214</v>
+        <v>1.00705895242491</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.023140296488017</v>
+        <v>1.024242292996722</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.012856837883413</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.01569010212102</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.013852711376701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9687067724711722</v>
+        <v>0.9720837963991658</v>
       </c>
       <c r="D19">
-        <v>0.9880832810765755</v>
+        <v>0.99220712257887</v>
       </c>
       <c r="E19">
-        <v>0.9801711380845185</v>
+        <v>0.9831318171455076</v>
       </c>
       <c r="F19">
-        <v>1.001983887091837</v>
+        <v>1.003436336180309</v>
       </c>
       <c r="G19">
         <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1.02</v>
       </c>
       <c r="I19">
         <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>0.9968645603474662</v>
+        <v>1.000103498086304</v>
       </c>
       <c r="K19">
-        <v>1.002045265477591</v>
+        <v>1.006096466956377</v>
       </c>
       <c r="L19">
-        <v>0.9942747174570297</v>
+        <v>0.9971820658065489</v>
       </c>
       <c r="M19">
-        <v>1.015704103622838</v>
+        <v>1.017131789936531</v>
       </c>
       <c r="N19">
-        <v>1.002297218551176</v>
+        <v>1.006896512725096</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.021581793428586</v>
+        <v>1.022710974015079</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.01259255582165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.015473588484967</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.013734776286109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9658549433933278</v>
+        <v>0.9695283061599647</v>
       </c>
       <c r="D20">
-        <v>0.9858732934321667</v>
+        <v>0.9903364072072661</v>
       </c>
       <c r="E20">
-        <v>0.9777870212400008</v>
+        <v>0.9810127853150952</v>
       </c>
       <c r="F20">
-        <v>0.9975093394073393</v>
+        <v>0.9991059722584558</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1.02</v>
       </c>
       <c r="I20">
         <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>0.9947686547486499</v>
+        <v>0.9982865889229138</v>
       </c>
       <c r="K20">
-        <v>1.000169177031679</v>
+        <v>1.004551334577833</v>
       </c>
       <c r="L20">
-        <v>0.9922320378586228</v>
+        <v>0.9953979257682515</v>
       </c>
       <c r="M20">
-        <v>1.011596125917946</v>
+        <v>1.013164560303815</v>
       </c>
       <c r="N20">
-        <v>1.001463893658632</v>
+        <v>1.006386342981156</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.017791518064686</v>
+        <v>1.019032803662405</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.011270069600957</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.014385517110753</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.013298151224963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9603777495874993</v>
+        <v>0.9646185491926759</v>
       </c>
       <c r="D21">
-        <v>0.9818897976443759</v>
+        <v>0.986978000250835</v>
       </c>
       <c r="E21">
-        <v>0.9734742107913201</v>
+        <v>0.9772040521560126</v>
       </c>
       <c r="F21">
-        <v>0.993208724883005</v>
+        <v>0.9950564093078907</v>
       </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1.02</v>
       </c>
       <c r="I21">
         <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>0.9916308279589677</v>
+        <v>0.9956738310810114</v>
       </c>
       <c r="K21">
-        <v>0.9972225927046595</v>
+        <v>1.002210350667594</v>
       </c>
       <c r="L21">
-        <v>0.9889761726853938</v>
+        <v>0.9926305650020578</v>
       </c>
       <c r="M21">
-        <v>1.008319912524252</v>
+        <v>1.010132048727136</v>
       </c>
       <c r="N21">
-        <v>1.000303242459984</v>
+        <v>1.006050145846391</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.015156582563148</v>
+        <v>1.016590818158638</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.009189942734844</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.01273394797285</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.012736261151289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9569010144261655</v>
+        <v>0.9615055454080775</v>
       </c>
       <c r="D22">
-        <v>0.9793683707363438</v>
+        <v>0.9848549328920445</v>
       </c>
       <c r="E22">
-        <v>0.9707500615264052</v>
+        <v>0.9748030284726821</v>
       </c>
       <c r="F22">
-        <v>0.9906204866070585</v>
+        <v>0.9926286056371237</v>
       </c>
       <c r="G22">
         <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1.02</v>
       </c>
       <c r="I22">
         <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>0.9896567486392266</v>
+        <v>0.9940334682863056</v>
       </c>
       <c r="K22">
-        <v>0.9953599314540863</v>
+        <v>1.000732507705151</v>
       </c>
       <c r="L22">
-        <v>0.9869241211894297</v>
+        <v>0.990890731427844</v>
       </c>
       <c r="M22">
-        <v>1.006380071900643</v>
+        <v>1.008347519443759</v>
       </c>
       <c r="N22">
-        <v>0.9995731954817213</v>
+        <v>1.005836234911581</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.013621270392276</v>
+        <v>1.015178432393811</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.007858887563964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.01167374491405</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.012380573760121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.95873248685307</v>
+        <v>0.963131063301329</v>
       </c>
       <c r="D23">
-        <v>0.9806860164768865</v>
+        <v>0.9859510136800091</v>
       </c>
       <c r="E23">
-        <v>0.9721816816602895</v>
+        <v>0.9760509002929108</v>
       </c>
       <c r="F23">
-        <v>0.9919887829841082</v>
+        <v>0.993906087598014</v>
       </c>
       <c r="G23">
         <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1.02</v>
       </c>
       <c r="I23">
         <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>0.9906892442360583</v>
+        <v>0.9948768425453195</v>
       </c>
       <c r="K23">
-        <v>0.9963281083612673</v>
+        <v>1.00148661777529</v>
       </c>
       <c r="L23">
-        <v>0.9879989989494929</v>
+        <v>0.9917879955157025</v>
       </c>
       <c r="M23">
-        <v>1.007404097087657</v>
+        <v>1.009283604753819</v>
       </c>
       <c r="N23">
-        <v>0.9999534706321543</v>
+        <v>1.005900048398961</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.014431748935974</v>
+        <v>1.015919308014886</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.008533491657998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.012196055425143</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.012558190192676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9658117407381454</v>
+        <v>0.9694939025823106</v>
       </c>
       <c r="D24">
-        <v>0.9858152209375902</v>
+        <v>0.9902880669732027</v>
       </c>
       <c r="E24">
-        <v>0.9777379589110206</v>
+        <v>0.9809718653203102</v>
       </c>
       <c r="F24">
-        <v>0.9972906229636875</v>
+        <v>0.9988923908452155</v>
       </c>
       <c r="G24">
         <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1.02</v>
       </c>
       <c r="I24">
         <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>0.994692464167741</v>
+        <v>0.998219028145554</v>
       </c>
       <c r="K24">
-        <v>1.000096102083897</v>
+        <v>1.004487908995958</v>
       </c>
       <c r="L24">
-        <v>0.9921676349094878</v>
+        <v>0.9953415847171492</v>
       </c>
       <c r="M24">
-        <v>1.011365485949249</v>
+        <v>1.012938985301291</v>
       </c>
       <c r="N24">
-        <v>1.001428934384279</v>
+        <v>1.006357594575466</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.0175670341476</v>
+        <v>1.018812393556911</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.011190058076926</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.014309713123558</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01327407251086</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9737127111603909</v>
+        <v>0.9768053175532798</v>
       </c>
       <c r="D25">
-        <v>0.9915781597188736</v>
+        <v>0.995334820331885</v>
       </c>
       <c r="E25">
-        <v>0.9839737772988848</v>
+        <v>0.98669206968726</v>
       </c>
       <c r="F25">
-        <v>1.003251627142461</v>
+        <v>1.00459380016526</v>
       </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1.02</v>
       </c>
       <c r="I25">
         <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>0.9991583300367861</v>
+        <v>1.00213930788793</v>
       </c>
       <c r="K25">
-        <v>1.004308636104976</v>
+        <v>1.008005991487287</v>
       </c>
       <c r="L25">
-        <v>0.9968260810154809</v>
+        <v>0.9995005478996887</v>
       </c>
       <c r="M25">
-        <v>1.015799674631198</v>
+        <v>1.017121219423895</v>
       </c>
       <c r="N25">
-        <v>1.00307082798304</v>
+        <v>1.00744872231246</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.021076504428746</v>
+        <v>1.022122446925811</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.014165766466699</v>
+        <v>1.016794036706784</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.014121318350635</v>
       </c>
     </row>
   </sheetData>
